--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t>项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -397,6 +397,14 @@
   </si>
   <si>
     <t>目标金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气滤清器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身免费保养</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,6 +887,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1241,13 +1255,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU49"/>
+  <dimension ref="A1:AU51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AD10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AD25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AR19" sqref="AR19"/>
+      <selection pane="bottomRight" activeCell="AN32" sqref="AN32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1274,83 +1288,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
       <c r="AK1"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
       <c r="AK2"/>
     </row>
     <row r="3" spans="1:47" ht="20.100000000000001" customHeight="1">
@@ -1471,7 +1485,7 @@
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -1542,7 +1556,7 @@
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1575,7 +1589,7 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="14">
-        <f t="shared" ref="AH5:AH45" si="0">SUM((C5:AG5))</f>
+        <f t="shared" ref="AH5:AH47" si="0">SUM((C5:AG5))</f>
         <v>0</v>
       </c>
       <c r="AI5" s="14"/>
@@ -1583,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="AK5" s="51" t="e">
-        <f t="shared" ref="AK5:AK45" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK47" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5" s="1"/>
@@ -1601,7 +1615,7 @@
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1676,7 +1690,7 @@
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1751,7 +1765,7 @@
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -1820,7 +1834,7 @@
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -1877,7 +1891,7 @@
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -1930,23 +1944,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="39" t="e">
-        <f>AH31/AH29</f>
+        <f>AH33/AH31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="39" t="e">
-        <f>AH33/AH32</f>
+        <f>AH35/AH34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="39" t="e">
-        <f>AH35/AH34</f>
+        <f>AH37/AH36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="39" t="e">
-        <f>(AH39+AH40+AH38)/AH4</f>
+        <f>(AH41+AH42+AH40)/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="39" t="e">
-        <f>1-AH45/AH4</f>
+        <f>1-AH47/AH4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1954,7 +1968,7 @@
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2029,7 +2043,7 @@
       <c r="A12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="31"/>
@@ -2098,7 +2112,7 @@
       <c r="A13" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -2163,7 +2177,7 @@
       <c r="A14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="60"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -2222,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="49">
-        <f>AH37</f>
+        <f>AH39</f>
         <v>0</v>
       </c>
       <c r="AR14" s="49">
@@ -2237,7 +2251,7 @@
       <c r="A15" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -2311,7 +2325,7 @@
       <c r="A16" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -2361,7 +2375,7 @@
       <c r="A17" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2411,7 +2425,7 @@
       <c r="A18" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="60"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -2473,7 +2487,7 @@
       <c r="A19" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -2538,7 +2552,7 @@
       <c r="A20" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -2603,7 +2617,7 @@
       <c r="A21" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2657,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="49">
-        <f t="shared" ref="AP20:AP27" si="13">AI15</f>
+        <f t="shared" ref="AP21:AP27" si="13">AI15</f>
         <v>0</v>
       </c>
       <c r="AT21" s="25"/>
@@ -3042,7 +3056,7 @@
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="19"/>
@@ -3096,21 +3110,19 @@
       <c r="AO28" s="1"/>
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>45</v>
-      </c>
+      <c r="A29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="53"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
       <c r="L29" s="16"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
@@ -3130,36 +3142,29 @@
       <c r="AB29" s="41"/>
       <c r="AC29" s="41"/>
       <c r="AD29" s="41"/>
-      <c r="AE29" s="7"/>
+      <c r="AE29" s="41"/>
       <c r="AF29" s="17"/>
-      <c r="AG29" s="7"/>
-      <c r="AH29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="14"/>
       <c r="AI29" s="14"/>
-      <c r="AJ29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK29" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="51"/>
+      <c r="AO29" s="1"/>
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="58"/>
+      <c r="A30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="54"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
       <c r="L30" s="16"/>
       <c r="M30" s="41"/>
       <c r="N30" s="41"/>
@@ -3179,25 +3184,28 @@
       <c r="AB30" s="41"/>
       <c r="AC30" s="41"/>
       <c r="AD30" s="41"/>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="41"/>
       <c r="AF30" s="17"/>
-      <c r="AG30" s="7"/>
+      <c r="AG30" s="41"/>
       <c r="AH30" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH30" si="14">SUM((C30:AG30))</f>
         <v>0</v>
       </c>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="6"/>
       <c r="AK30" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" ref="AK30" si="15">AH30/AI30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO30" s="1"/>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="58"/>
+        <v>54</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>45</v>
+      </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -3234,7 +3242,9 @@
         <v>0</v>
       </c>
       <c r="AI31" s="14"/>
-      <c r="AJ31" s="6"/>
+      <c r="AJ31" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="AK31" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3242,9 +3252,9 @@
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="58"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="60"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -3288,10 +3298,10 @@
       </c>
     </row>
     <row r="33" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="59"/>
+      <c r="A33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="60"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -3324,7 +3334,7 @@
       <c r="AF33" s="17"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="14">
-        <f>SUM((C33:AG33))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI33" s="14"/>
@@ -3335,12 +3345,10 @@
       </c>
     </row>
     <row r="34" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>46</v>
-      </c>
+      <c r="A34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="60"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -3373,23 +3381,21 @@
       <c r="AF34" s="17"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="14">
-        <f>SUM((C34:AG34))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI34" s="14"/>
-      <c r="AJ34" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="AJ34" s="6"/>
       <c r="AK34" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="58"/>
+      <c r="A35" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="61"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -3422,13 +3428,11 @@
       <c r="AF35" s="17"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C35:AG35))</f>
         <v>0</v>
       </c>
       <c r="AI35" s="14"/>
-      <c r="AJ35" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="AJ35" s="6"/>
       <c r="AK35" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3436,9 +3440,11 @@
     </row>
     <row r="36" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="59"/>
+        <v>57</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -3467,29 +3473,27 @@
       <c r="AB36" s="41"/>
       <c r="AC36" s="41"/>
       <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
+      <c r="AE36" s="7"/>
       <c r="AF36" s="17"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C36:AG36))</f>
         <v>0</v>
       </c>
       <c r="AI36" s="14"/>
-      <c r="AJ36" s="6"/>
+      <c r="AJ36" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AK36" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="23"/>
-      <c r="AR36" s="23"/>
-      <c r="AS36" s="23"/>
     </row>
     <row r="37" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="44"/>
+      <c r="A37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="60"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -3526,23 +3530,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="14"/>
-      <c r="AJ37" s="6"/>
+      <c r="AJ37" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="AK37" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="23"/>
-      <c r="AR37" s="23"/>
-      <c r="AS37" s="23"/>
     </row>
     <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>47</v>
-      </c>
+      <c r="A38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="61"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -3571,7 +3571,7 @@
       <c r="AB38" s="41"/>
       <c r="AC38" s="41"/>
       <c r="AD38" s="41"/>
-      <c r="AE38" s="7"/>
+      <c r="AE38" s="41"/>
       <c r="AF38" s="17"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="14">
@@ -3586,14 +3586,14 @@
       </c>
       <c r="AP38" s="23"/>
       <c r="AQ38" s="23"/>
-      <c r="AR38" s="25"/>
-      <c r="AS38" s="26"/>
+      <c r="AR38" s="23"/>
+      <c r="AS38" s="23"/>
     </row>
     <row r="39" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="58"/>
+      <c r="A39" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="44"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -3626,7 +3626,7 @@
       <c r="AF39" s="17"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="14">
-        <f>SUM((C39:AG39))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI39" s="14"/>
@@ -3635,16 +3635,18 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP39" s="23"/>
+      <c r="AP39" s="24"/>
       <c r="AQ39" s="23"/>
-      <c r="AR39" s="25"/>
-      <c r="AS39" s="26"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
     </row>
     <row r="40" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="58"/>
+        <v>82</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>47</v>
+      </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -3688,23 +3690,23 @@
       </c>
       <c r="AP40" s="23"/>
       <c r="AQ40" s="23"/>
-      <c r="AR40" s="23"/>
-      <c r="AS40" s="23"/>
+      <c r="AR40" s="25"/>
+      <c r="AS40" s="26"/>
     </row>
     <row r="41" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="58"/>
+        <v>83</v>
+      </c>
+      <c r="B41" s="60"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="16"/>
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
@@ -3724,11 +3726,11 @@
       <c r="AB41" s="41"/>
       <c r="AC41" s="41"/>
       <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
+      <c r="AE41" s="7"/>
       <c r="AF41" s="17"/>
-      <c r="AG41" s="41"/>
+      <c r="AG41" s="7"/>
       <c r="AH41" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C41:AG41))</f>
         <v>0</v>
       </c>
       <c r="AI41" s="14"/>
@@ -3739,23 +3741,23 @@
       </c>
       <c r="AP41" s="23"/>
       <c r="AQ41" s="23"/>
-      <c r="AR41" s="23"/>
-      <c r="AS41" s="23"/>
+      <c r="AR41" s="25"/>
+      <c r="AS41" s="26"/>
     </row>
     <row r="42" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="59"/>
+        <v>84</v>
+      </c>
+      <c r="B42" s="60"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="16"/>
+      <c r="K42" s="7"/>
       <c r="L42" s="16"/>
       <c r="M42" s="41"/>
       <c r="N42" s="41"/>
@@ -3794,21 +3796,19 @@
       <c r="AS42" s="23"/>
     </row>
     <row r="43" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>48</v>
-      </c>
+      <c r="A43" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="60"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="16"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
       <c r="L43" s="16"/>
       <c r="M43" s="41"/>
       <c r="N43" s="41"/>
@@ -3828,9 +3828,9 @@
       <c r="AB43" s="41"/>
       <c r="AC43" s="41"/>
       <c r="AD43" s="41"/>
-      <c r="AE43" s="7"/>
+      <c r="AE43" s="41"/>
       <c r="AF43" s="17"/>
-      <c r="AG43" s="7"/>
+      <c r="AG43" s="41"/>
       <c r="AH43" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3843,14 +3843,14 @@
       </c>
       <c r="AP43" s="23"/>
       <c r="AQ43" s="23"/>
-      <c r="AR43" s="25"/>
-      <c r="AS43" s="26"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
     </row>
     <row r="44" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="58"/>
+      <c r="A44" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="61"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -3894,14 +3894,16 @@
       </c>
       <c r="AP44" s="23"/>
       <c r="AQ44" s="23"/>
-      <c r="AR44" s="25"/>
-      <c r="AS44" s="26"/>
+      <c r="AR44" s="23"/>
+      <c r="AS44" s="23"/>
     </row>
     <row r="45" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="59"/>
+        <v>21</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>48</v>
+      </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -3938,9 +3940,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="14"/>
-      <c r="AJ45" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="AJ45" s="6"/>
       <c r="AK45" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3950,31 +3950,135 @@
       <c r="AR45" s="25"/>
       <c r="AS45" s="26"/>
     </row>
-    <row r="46" spans="1:45">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:45" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="41"/>
+      <c r="AD46" s="41"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP46" s="23"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="25"/>
+      <c r="AS46" s="26"/>
+    </row>
+    <row r="47" spans="1:45" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="61"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK47" s="51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="25"/>
+      <c r="AS47" s="26"/>
+    </row>
+    <row r="48" spans="1:45">
+      <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="42:42">
-      <c r="AP49" s="1"/>
+    <row r="51" spans="42:42">
+      <c r="AP51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AJ2"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B36:B38"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B31:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AR38:AR39">
+  <conditionalFormatting sqref="AR40:AR41">
     <cfRule type="expression" dxfId="2" priority="10">
-      <formula>IF(AR38&gt;=$AM18,1,0)=1</formula>
+      <formula>IF(AR40&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU21">
@@ -3982,13 +4086,13 @@
       <formula>IF(AT15&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR43:AR45">
+  <conditionalFormatting sqref="AR45:AR47">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>IF(AR43&gt;=$AM22,1,0)=1</formula>
+      <formula>IF(AR45&gt;=$AM22,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B46" r:id="rId1"/>
+    <hyperlink ref="B48" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -1258,16 +1258,16 @@
   <dimension ref="A1:AU51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AD25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AN32" sqref="AN32"/>
+      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" hidden="1" customWidth="1"/>
     <col min="3" max="4" width="5.625" style="1" customWidth="1"/>
     <col min="5" max="9" width="5.625" customWidth="1"/>
     <col min="10" max="10" width="5.625" style="1" customWidth="1"/>
@@ -1604,12 +1604,30 @@
       <c r="AM5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="40"/>
+      <c r="AN5" s="49">
+        <f>AI4</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="39" t="e">
+        <f>AI5/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP5" s="49">
+        <f>AI10</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="39" t="e">
+        <f>AI22/(AI10-(AN9-50%)*AI10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" s="39" t="e">
+        <f>AI23/AI10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS5" s="40" t="e">
+        <f>AI10/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -1880,12 +1898,30 @@
       <c r="AM9" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
+      <c r="AN9" s="39" t="e">
+        <f>AI12/AI10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO9" s="39" t="e">
+        <f>AI33/AI31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP9" s="39" t="e">
+        <f>AI35/AI34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ9" s="39" t="e">
+        <f>AI37/AI36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR9" s="39" t="e">
+        <f>(AI41+AI42+AI40)/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS9" s="39" t="e">
+        <f>1-AI47/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -2158,13 +2194,22 @@
       <c r="AM13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="39"/>
+      <c r="AN13" s="40" t="e">
+        <f>AI11/AI9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO13" s="39" t="e">
+        <f>AI9/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AP13" s="49">
         <f>AI23</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="40"/>
+      <c r="AQ13" s="49">
+        <f>AI39</f>
+        <v>0</v>
+      </c>
       <c r="AR13" s="49">
         <f>AI12</f>
         <v>0</v>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -405,6 +405,10 @@
   </si>
   <si>
     <t>终身免费保养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,9 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +894,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,13 +1259,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU51"/>
+  <dimension ref="A1:AU52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG12" sqref="AG12"/>
+      <selection pane="bottomRight" activeCell="AO31" sqref="AO31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1473,7 +1477,7 @@
       <c r="AI3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AJ3" s="42" t="s">
+      <c r="AJ3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="AK3" s="22" t="s">
@@ -1496,24 +1500,24 @@
       <c r="J4" s="7"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="17"/>
       <c r="AG4" s="7"/>
@@ -1525,30 +1529,30 @@
       <c r="AJ4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="51" t="e">
+      <c r="AK4" s="50" t="e">
         <f>AH4/AI4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="38" t="s">
+      <c r="AM4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AN4" s="38" t="s">
+      <c r="AN4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AO4" s="38" t="s">
+      <c r="AO4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" s="38" t="s">
+      <c r="AP4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="AQ4" s="38" t="s">
+      <c r="AQ4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AR4" s="38" t="s">
+      <c r="AR4" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="AS4" s="38" t="s">
+      <c r="AS4" s="37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1567,64 +1571,64 @@
       <c r="J5" s="7"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="17"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="14">
-        <f t="shared" ref="AH5:AH47" si="0">SUM((C5:AG5))</f>
+        <f t="shared" ref="AH5:AH48" si="0">SUM((C5:AG5))</f>
         <v>0</v>
       </c>
       <c r="AI5" s="14"/>
       <c r="AJ5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AK5" s="51" t="e">
-        <f t="shared" ref="AK5:AK47" si="1">AH5/AI5</f>
+      <c r="AK5" s="50" t="e">
+        <f t="shared" ref="AK5:AK48" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="38" t="s">
+      <c r="AM5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AN5" s="49">
+      <c r="AN5" s="48">
         <f>AI4</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="39" t="e">
+      <c r="AO5" s="38" t="e">
         <f>AI5/AI4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP5" s="49">
+      <c r="AP5" s="48">
         <f>AI10</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="39" t="e">
+      <c r="AQ5" s="38" t="e">
         <f>AI22/(AI10-(AN9-50%)*AI10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="39" t="e">
+      <c r="AR5" s="38" t="e">
         <f>AI23/AI10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS5" s="40" t="e">
+      <c r="AS5" s="39" t="e">
         <f>AI10/AI4</f>
         <v>#DIV/0!</v>
       </c>
@@ -1644,24 +1648,24 @@
       <c r="J6" s="7"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="17"/>
       <c r="AG6" s="7"/>
@@ -1671,35 +1675,35 @@
       </c>
       <c r="AI6" s="14"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="51" t="e">
+      <c r="AK6" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="38" t="s">
+      <c r="AM6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AN6" s="49">
+      <c r="AN6" s="48">
         <f>AH4</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="39" t="e">
+      <c r="AO6" s="38" t="e">
         <f>AH5/AH4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP6" s="49">
+      <c r="AP6" s="48">
         <f>AH10</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="39" t="e">
+      <c r="AQ6" s="38" t="e">
         <f>AH22/(AH10-(AN10-50%)*AH10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="39" t="e">
+      <c r="AR6" s="38" t="e">
         <f>AH23/AH10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS6" s="40" t="e">
+      <c r="AS6" s="39" t="e">
         <f>AH10/AH4</f>
         <v>#DIV/0!</v>
       </c>
@@ -1719,24 +1723,24 @@
       <c r="J7" s="7"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="17"/>
       <c r="AG7" s="7"/>
@@ -1746,35 +1750,35 @@
       </c>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="6"/>
-      <c r="AK7" s="51" t="e">
+      <c r="AK7" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="38" t="s">
+      <c r="AM7" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AN7" s="39" t="e">
+      <c r="AN7" s="38" t="e">
         <f>AN6/AN5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="39" t="e">
+      <c r="AO7" s="38" t="e">
         <f t="shared" ref="AO7:AP7" si="2">AO6/AO5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="39" t="e">
+      <c r="AP7" s="38" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="39" t="e">
+      <c r="AQ7" s="38" t="e">
         <f>AQ6/AQ5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="39" t="e">
+      <c r="AR7" s="38" t="e">
         <f t="shared" ref="AR7" si="3">AR6/AR5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS7" s="39" t="e">
+      <c r="AS7" s="38" t="e">
         <f t="shared" ref="AS7" si="4">AS6/AS5</f>
         <v>#DIV/0!</v>
       </c>
@@ -1794,24 +1798,24 @@
       <c r="J8" s="7"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
       <c r="AE8" s="7"/>
       <c r="AF8" s="17"/>
       <c r="AG8" s="7"/>
@@ -1821,30 +1825,30 @@
       </c>
       <c r="AI8" s="14"/>
       <c r="AJ8" s="6"/>
-      <c r="AK8" s="51" t="e">
+      <c r="AK8" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="38" t="s">
+      <c r="AM8" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AN8" s="38" t="s">
+      <c r="AN8" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="AO8" s="38" t="s">
+      <c r="AO8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AP8" s="38" t="s">
+      <c r="AP8" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="AQ8" s="38" t="s">
+      <c r="AQ8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AR8" s="38" t="s">
+      <c r="AR8" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AS8" s="38" t="s">
+      <c r="AS8" s="37" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1863,24 +1867,24 @@
       <c r="J9" s="7"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
       <c r="AE9" s="7"/>
       <c r="AF9" s="17"/>
       <c r="AG9" s="7"/>
@@ -1890,36 +1894,36 @@
       </c>
       <c r="AI9" s="14"/>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="51" t="e">
+      <c r="AK9" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="38" t="s">
+      <c r="AM9" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AN9" s="39" t="e">
+      <c r="AN9" s="38" t="e">
         <f>AI12/AI10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO9" s="39" t="e">
-        <f>AI33/AI31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP9" s="39" t="e">
-        <f>AI35/AI34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ9" s="39" t="e">
-        <f>AI37/AI36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR9" s="39" t="e">
-        <f>(AI41+AI42+AI40)/AI4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS9" s="39" t="e">
-        <f>1-AI47/AI4</f>
+      <c r="AO9" s="38" t="e">
+        <f>AI34/AI32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP9" s="38" t="e">
+        <f>AI36/AI35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ9" s="38" t="e">
+        <f>AI38/AI37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR9" s="38" t="e">
+        <f>(AI42+AI43+AI41)/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS9" s="38" t="e">
+        <f>1-AI48/AI4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1938,24 +1942,24 @@
       <c r="J10" s="18"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
       <c r="AE10" s="7"/>
       <c r="AF10" s="18"/>
       <c r="AG10" s="7"/>
@@ -1967,36 +1971,36 @@
       <c r="AJ10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AK10" s="51" t="e">
+      <c r="AK10" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL10" s="1"/>
-      <c r="AM10" s="38" t="s">
+      <c r="AM10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AN10" s="39" t="e">
+      <c r="AN10" s="38" t="e">
         <f>AH12/AH10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO10" s="39" t="e">
-        <f>AH33/AH31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP10" s="39" t="e">
-        <f>AH35/AH34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ10" s="39" t="e">
-        <f>AH37/AH36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR10" s="39" t="e">
-        <f>(AH41+AH42+AH40)/AH4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS10" s="39" t="e">
-        <f>1-AH47/AH4</f>
+      <c r="AO10" s="38" t="e">
+        <f>AH34/AH32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP10" s="38" t="e">
+        <f>AH36/AH35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ10" s="38" t="e">
+        <f>AH38/AH37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR10" s="38" t="e">
+        <f>(AH42+AH43+AH41)/AH4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS10" s="38" t="e">
+        <f>1-AH48/AH4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2015,24 +2019,24 @@
       <c r="J11" s="18"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="18"/>
       <c r="AG11" s="7"/>
@@ -2042,110 +2046,110 @@
       </c>
       <c r="AI11" s="14"/>
       <c r="AJ11" s="6"/>
-      <c r="AK11" s="51" t="e">
+      <c r="AK11" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL11" s="1"/>
-      <c r="AM11" s="38" t="s">
+      <c r="AM11" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AN11" s="39" t="e">
+      <c r="AN11" s="38" t="e">
         <f>AN10/AN9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="39" t="e">
+      <c r="AO11" s="38" t="e">
         <f>AO10/AO9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="39" t="e">
+      <c r="AP11" s="38" t="e">
         <f>AP10/AP9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="39" t="e">
+      <c r="AQ11" s="38" t="e">
         <f t="shared" ref="AQ11" si="6">AQ10/AQ9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="39" t="e">
+      <c r="AR11" s="38" t="e">
         <f t="shared" ref="AR11" si="7">AR10/AR9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="39" t="e">
+      <c r="AS11" s="38" t="e">
         <f t="shared" ref="AS11" si="8">AS10/AS9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="60"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="33">
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="32">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="33"/>
+      <c r="AI12" s="32"/>
       <c r="AJ12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AK12" s="51" t="e">
+      <c r="AK12" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL12" s="1"/>
-      <c r="AM12" s="38" t="s">
+      <c r="AM12" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AN12" s="38" t="s">
+      <c r="AN12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AO12" s="38" t="s">
+      <c r="AO12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="AP12" s="38" t="s">
+      <c r="AP12" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="AQ12" s="38" t="s">
+      <c r="AQ12" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AR12" s="38" t="s">
+      <c r="AR12" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AS12" s="38"/>
+      <c r="AS12" s="37"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="44" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="62"/>
@@ -2159,67 +2163,67 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
-      <c r="AH13" s="27">
+      <c r="AH13" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI13" s="14"/>
       <c r="AJ13" s="6"/>
-      <c r="AK13" s="51" t="e">
+      <c r="AK13" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL13" s="1"/>
-      <c r="AM13" s="38" t="s">
+      <c r="AM13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AN13" s="40" t="e">
+      <c r="AN13" s="39" t="e">
         <f>AI11/AI9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO13" s="39" t="e">
+      <c r="AO13" s="38" t="e">
         <f>AI9/AI4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP13" s="49">
+      <c r="AP13" s="48">
         <f>AI23</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="49">
-        <f>AI39</f>
-        <v>0</v>
-      </c>
-      <c r="AR13" s="49">
+      <c r="AQ13" s="48">
+        <f>AI40</f>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="48">
         <f>AI12</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="39"/>
+      <c r="AS13" s="38"/>
       <c r="AT13" s="23"/>
       <c r="AU13" s="23"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B14" s="62"/>
@@ -2233,67 +2237,67 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
-      <c r="AH14" s="27">
+      <c r="AH14" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI14" s="14"/>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="51" t="e">
+      <c r="AK14" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" s="1"/>
-      <c r="AM14" s="38" t="s">
+      <c r="AM14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AN14" s="40" t="e">
+      <c r="AN14" s="39" t="e">
         <f>AH11/AH9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO14" s="39" t="e">
+      <c r="AO14" s="38" t="e">
         <f>AH9/AH4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="49">
+      <c r="AP14" s="48">
         <f>AH23</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="49">
-        <f>AH39</f>
-        <v>0</v>
-      </c>
-      <c r="AR14" s="49">
+      <c r="AQ14" s="48">
+        <f>AH40</f>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="48">
         <f>AH12</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="39"/>
+      <c r="AS14" s="38"/>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="62"/>
@@ -2307,67 +2311,67 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
-      <c r="AH15" s="27">
+      <c r="AH15" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI15" s="14"/>
       <c r="AJ15" s="6"/>
-      <c r="AK15" s="51" t="e">
+      <c r="AK15" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="38" t="s">
+      <c r="AM15" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AN15" s="39" t="e">
+      <c r="AN15" s="38" t="e">
         <f>AN14/AN13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO15" s="39" t="e">
+      <c r="AO15" s="38" t="e">
         <f t="shared" ref="AO15" si="9">AO14/AO13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP15" s="39" t="e">
+      <c r="AP15" s="38" t="e">
         <f t="shared" ref="AP15" si="10">AP14/AP13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ15" s="39" t="e">
+      <c r="AQ15" s="38" t="e">
         <f t="shared" ref="AQ15:AR15" si="11">AQ14/AQ13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="39" t="e">
+      <c r="AR15" s="38" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="24"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="62"/>
@@ -2381,43 +2385,43 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
-      <c r="AH16" s="27">
+      <c r="AH16" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="6"/>
-      <c r="AK16" s="51" t="e">
+      <c r="AK16" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL16" s="1"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="24"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="62"/>
@@ -2431,43 +2435,43 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
-      <c r="AH17" s="27">
+      <c r="AH17" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI17" s="14"/>
       <c r="AJ17" s="6"/>
-      <c r="AK17" s="51" t="e">
+      <c r="AK17" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL17" s="1"/>
-      <c r="AT17" s="25"/>
-      <c r="AU17" s="25"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="24"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="62"/>
@@ -2481,55 +2485,55 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
-      <c r="AH18" s="27">
+      <c r="AH18" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI18" s="14"/>
       <c r="AJ18" s="6"/>
-      <c r="AK18" s="51" t="e">
+      <c r="AK18" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL18" s="1"/>
-      <c r="AM18" s="38" t="s">
+      <c r="AM18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AN18" s="38" t="s">
+      <c r="AN18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AO18" s="38" t="s">
+      <c r="AO18" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="AP18" s="38" t="s">
+      <c r="AP18" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="AT18" s="25"/>
-      <c r="AU18" s="25"/>
+      <c r="AT18" s="24"/>
+      <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="62"/>
@@ -2543,58 +2547,58 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
-      <c r="AH19" s="27">
+      <c r="AH19" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI19" s="14"/>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="51" t="e">
+      <c r="AK19" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="38" t="s">
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="AN19" s="39" t="e">
+      <c r="AN19" s="38" t="e">
         <f>AH13/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO19" s="49">
+      <c r="AO19" s="48">
         <f>AH13</f>
         <v>0</v>
       </c>
-      <c r="AP19" s="49">
+      <c r="AP19" s="48">
         <f>AI13</f>
         <v>0</v>
       </c>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="25"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="62"/>
@@ -2608,58 +2612,58 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
-      <c r="AH20" s="27">
+      <c r="AH20" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="6"/>
-      <c r="AK20" s="51" t="e">
+      <c r="AK20" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="38" t="s">
+      <c r="AL20" s="49"/>
+      <c r="AM20" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AN20" s="39" t="e">
+      <c r="AN20" s="38" t="e">
         <f>AH14/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO20" s="49">
-        <f t="shared" ref="AO20:AO27" si="12">AH14</f>
-        <v>0</v>
-      </c>
-      <c r="AP20" s="49">
+      <c r="AO20" s="48">
+        <f>AH14</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="48">
         <f>AI14</f>
         <v>0</v>
       </c>
-      <c r="AT20" s="25"/>
-      <c r="AU20" s="25"/>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="24"/>
     </row>
     <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="46" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="62"/>
@@ -2673,117 +2677,117 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
-      <c r="AH21" s="27">
+      <c r="AH21" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="6"/>
-      <c r="AK21" s="51" t="e">
+      <c r="AK21" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM21" s="38" t="s">
+      <c r="AM21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="39" t="e">
+      <c r="AN21" s="38" t="e">
         <f>AH15/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO21" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP21" s="49">
-        <f t="shared" ref="AP21:AP27" si="13">AI15</f>
-        <v>0</v>
-      </c>
-      <c r="AT21" s="25"/>
-      <c r="AU21" s="25"/>
+      <c r="AO21" s="48">
+        <f>AH15</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="48">
+        <f>AI15</f>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="24"/>
     </row>
     <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
       <c r="AE22" s="21"/>
-      <c r="AF22" s="35"/>
+      <c r="AF22" s="34"/>
       <c r="AG22" s="21"/>
-      <c r="AH22" s="36">
+      <c r="AH22" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="37" t="s">
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AK22" s="51" t="e">
+      <c r="AK22" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="38" t="s">
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AN22" s="39" t="e">
+      <c r="AN22" s="38" t="e">
         <f>AH16/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO22" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP22" s="49">
-        <f t="shared" si="13"/>
+      <c r="AO22" s="48">
+        <f>AH16</f>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="48">
+        <f>AI16</f>
         <v>0</v>
       </c>
     </row>
@@ -2791,7 +2795,7 @@
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -2802,24 +2806,24 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="17"/>
       <c r="AG23" s="7"/>
@@ -2831,23 +2835,23 @@
       <c r="AJ23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AK23" s="51" t="e">
+      <c r="AK23" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM23" s="38" t="s">
+      <c r="AM23" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AN23" s="39" t="e">
+      <c r="AN23" s="38" t="e">
         <f>AH17/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO23" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP23" s="49">
-        <f t="shared" si="13"/>
+      <c r="AO23" s="48">
+        <f>AH17</f>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="48">
+        <f>AI17</f>
         <v>0</v>
       </c>
     </row>
@@ -2855,300 +2859,300 @@
       <c r="A24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
       <c r="AF24" s="17"/>
-      <c r="AG24" s="41"/>
+      <c r="AG24" s="40"/>
       <c r="AH24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI24" s="14"/>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="51" t="e">
+      <c r="AK24" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM24" s="38" t="s">
+      <c r="AM24" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AN24" s="39" t="e">
+      <c r="AN24" s="38" t="e">
         <f>AH18/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO24" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP24" s="49">
-        <f t="shared" si="13"/>
+      <c r="AO24" s="48">
+        <f>AH18</f>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="48">
+        <f>AI18</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="52"/>
+        <v>98</v>
+      </c>
+      <c r="B25" s="54"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
       <c r="AF25" s="17"/>
-      <c r="AG25" s="41"/>
+      <c r="AG25" s="40"/>
       <c r="AH25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="6"/>
-      <c r="AK25" s="51" t="e">
+      <c r="AK25" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM25" s="38" t="s">
+      <c r="AM25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AN25" s="39" t="e">
+      <c r="AN25" s="38" t="e">
         <f>AH19/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO25" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP25" s="49">
-        <f t="shared" si="13"/>
+      <c r="AO25" s="48">
+        <f>AH19</f>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="48">
+        <f>AI19</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="52"/>
+        <v>92</v>
+      </c>
+      <c r="B26" s="51"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
       <c r="AF26" s="17"/>
-      <c r="AG26" s="41"/>
+      <c r="AG26" s="40"/>
       <c r="AH26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI26" s="14"/>
       <c r="AJ26" s="6"/>
-      <c r="AK26" s="51" t="e">
+      <c r="AK26" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM26" s="38" t="s">
+      <c r="AM26" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AN26" s="39" t="e">
+      <c r="AN26" s="38" t="e">
         <f>AH20/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO26" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP26" s="49">
-        <f t="shared" si="13"/>
+      <c r="AO26" s="48">
+        <f>AH20</f>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="48">
+        <f>AI20</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="52"/>
+        <v>93</v>
+      </c>
+      <c r="B27" s="51"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
       <c r="AF27" s="17"/>
-      <c r="AG27" s="41"/>
+      <c r="AG27" s="40"/>
       <c r="AH27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="6"/>
-      <c r="AK27" s="51" t="e">
+      <c r="AK27" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM27" s="38" t="s">
+      <c r="AM27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AN27" s="39" t="e">
+      <c r="AN27" s="38" t="e">
         <f>AH21/AH12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO27" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="49">
-        <f t="shared" si="13"/>
+      <c r="AO27" s="48">
+        <f>AH21</f>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="48">
+        <f>AI21</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="43"/>
+      <c r="A28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="51"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="7"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
       <c r="AF28" s="17"/>
-      <c r="AG28" s="7"/>
+      <c r="AG28" s="40"/>
       <c r="AH28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI28" s="14"/>
       <c r="AJ28" s="6"/>
-      <c r="AK28" s="51" t="e">
+      <c r="AK28" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AN28" s="48" t="e">
+      <c r="AN28" s="47" t="e">
         <f>SUM(AN19:AN27)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3156,150 +3160,148 @@
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="53"/>
+        <v>96</v>
+      </c>
+      <c r="B29" s="42"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="7"/>
       <c r="AF29" s="17"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="14"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AI29" s="14"/>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="51"/>
-      <c r="AO29" s="1"/>
+      <c r="AK29" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="54"/>
+        <v>97</v>
+      </c>
+      <c r="B30" s="52"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
       <c r="AF30" s="17"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="14">
-        <f t="shared" ref="AH30" si="14">SUM((C30:AG30))</f>
-        <v>0</v>
-      </c>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="14"/>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="6"/>
-      <c r="AK30" s="51" t="e">
-        <f t="shared" ref="AK30" si="15">AH30/AI30</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AK30" s="50"/>
       <c r="AO30" s="1"/>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>45</v>
-      </c>
+      <c r="A31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="53"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="7"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
       <c r="AF31" s="17"/>
-      <c r="AG31" s="7"/>
+      <c r="AG31" s="40"/>
       <c r="AH31" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH31" si="12">SUM((C31:AG31))</f>
         <v>0</v>
       </c>
       <c r="AI31" s="14"/>
-      <c r="AJ31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK31" s="51" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="50" t="e">
+        <f t="shared" ref="AK31" si="13">AH31/AI31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO31" s="1"/>
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>45</v>
+      </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -3310,24 +3312,24 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
       <c r="AE32" s="7"/>
       <c r="AF32" s="17"/>
       <c r="AG32" s="7"/>
@@ -3336,15 +3338,17 @@
         <v>0</v>
       </c>
       <c r="AI32" s="14"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="51" t="e">
+      <c r="AJ32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK32" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B33" s="60"/>
       <c r="C33" s="19"/>
@@ -3357,24 +3361,24 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="7"/>
@@ -3384,14 +3388,14 @@
       </c>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="6"/>
-      <c r="AK33" s="51" t="e">
+      <c r="AK33" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B34" s="60"/>
       <c r="C34" s="19"/>
@@ -3404,24 +3408,24 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="17"/>
       <c r="AG34" s="7"/>
@@ -3431,16 +3435,16 @@
       </c>
       <c r="AI34" s="14"/>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="51" t="e">
+      <c r="AK34" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="61"/>
+      <c r="A35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="60"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -3451,45 +3455,43 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="17"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="14">
-        <f>SUM((C35:AG35))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI35" s="14"/>
       <c r="AJ35" s="6"/>
-      <c r="AK35" s="51" t="e">
+      <c r="AK35" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>46</v>
-      </c>
+      <c r="A36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="61"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -3500,24 +3502,24 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="17"/>
       <c r="AG36" s="7"/>
@@ -3526,19 +3528,19 @@
         <v>0</v>
       </c>
       <c r="AI36" s="14"/>
-      <c r="AJ36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK36" s="51" t="e">
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="60"/>
+        <v>57</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -3549,45 +3551,45 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="17"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C37:AG37))</f>
         <v>0</v>
       </c>
       <c r="AI37" s="14"/>
-      <c r="AJ37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK37" s="51" t="e">
+      <c r="AJ37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK37" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="61"/>
+        <v>58</v>
+      </c>
+      <c r="B38" s="60"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -3598,25 +3600,25 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="41"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="7"/>
       <c r="AF38" s="17"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="14">
@@ -3624,21 +3626,19 @@
         <v>0</v>
       </c>
       <c r="AI38" s="14"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="51" t="e">
+      <c r="AJ38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK38" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP38" s="23"/>
-      <c r="AQ38" s="23"/>
-      <c r="AR38" s="23"/>
-      <c r="AS38" s="23"/>
     </row>
     <row r="39" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="44"/>
+      <c r="A39" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="61"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -3649,25 +3649,25 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="16"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="41"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="7"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
       <c r="AF39" s="17"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="14">
@@ -3676,22 +3676,19 @@
       </c>
       <c r="AI39" s="14"/>
       <c r="AJ39" s="6"/>
-      <c r="AK39" s="51" t="e">
+      <c r="AK39" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP39" s="24"/>
       <c r="AQ39" s="23"/>
       <c r="AR39" s="23"/>
       <c r="AS39" s="23"/>
     </row>
     <row r="40" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>47</v>
-      </c>
+      <c r="A40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="43"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -3702,24 +3699,24 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="16"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="41"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="40"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="17"/>
       <c r="AG40" s="7"/>
@@ -3729,20 +3726,21 @@
       </c>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="6"/>
-      <c r="AK40" s="51" t="e">
+      <c r="AK40" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP40" s="23"/>
       <c r="AQ40" s="23"/>
-      <c r="AR40" s="25"/>
-      <c r="AS40" s="26"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="23"/>
     </row>
     <row r="41" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="60"/>
+        <v>82</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>47</v>
+      </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -3753,45 +3751,44 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="41"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="40"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="17"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="14">
-        <f>SUM((C41:AG41))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="6"/>
-      <c r="AK41" s="51" t="e">
+      <c r="AK41" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP41" s="23"/>
       <c r="AQ41" s="23"/>
-      <c r="AR41" s="25"/>
-      <c r="AS41" s="26"/>
+      <c r="AR41" s="24"/>
+      <c r="AS41" s="25"/>
     </row>
     <row r="42" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="60"/>
       <c r="C42" s="19"/>
@@ -3804,45 +3801,44 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="16"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="41"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="17"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C42:AG42))</f>
         <v>0</v>
       </c>
       <c r="AI42" s="14"/>
       <c r="AJ42" s="6"/>
-      <c r="AK42" s="51" t="e">
+      <c r="AK42" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP42" s="23"/>
       <c r="AQ42" s="23"/>
-      <c r="AR42" s="23"/>
-      <c r="AS42" s="23"/>
+      <c r="AR42" s="24"/>
+      <c r="AS42" s="25"/>
     </row>
     <row r="43" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B43" s="60"/>
       <c r="C43" s="19"/>
@@ -3850,105 +3846,101 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
       <c r="L43" s="16"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="41"/>
-      <c r="AC43" s="41"/>
-      <c r="AD43" s="41"/>
-      <c r="AE43" s="41"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="40"/>
+      <c r="AD43" s="40"/>
+      <c r="AE43" s="7"/>
       <c r="AF43" s="17"/>
-      <c r="AG43" s="41"/>
+      <c r="AG43" s="7"/>
       <c r="AH43" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI43" s="14"/>
       <c r="AJ43" s="6"/>
-      <c r="AK43" s="51" t="e">
+      <c r="AK43" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP43" s="23"/>
       <c r="AQ43" s="23"/>
       <c r="AR43" s="23"/>
       <c r="AS43" s="23"/>
     </row>
     <row r="44" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="61"/>
+        <v>88</v>
+      </c>
+      <c r="B44" s="60"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="16"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
       <c r="L44" s="16"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="41"/>
-      <c r="Z44" s="41"/>
-      <c r="AA44" s="41"/>
-      <c r="AB44" s="41"/>
-      <c r="AC44" s="41"/>
-      <c r="AD44" s="41"/>
-      <c r="AE44" s="7"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="40"/>
+      <c r="AD44" s="40"/>
+      <c r="AE44" s="40"/>
       <c r="AF44" s="17"/>
-      <c r="AG44" s="7"/>
+      <c r="AG44" s="40"/>
       <c r="AH44" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI44" s="14"/>
       <c r="AJ44" s="6"/>
-      <c r="AK44" s="51" t="e">
+      <c r="AK44" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP44" s="23"/>
       <c r="AQ44" s="23"/>
       <c r="AR44" s="23"/>
       <c r="AS44" s="23"/>
     </row>
     <row r="45" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>48</v>
-      </c>
+      <c r="A45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="61"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -3959,24 +3951,24 @@
       <c r="J45" s="7"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="41"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
       <c r="AE45" s="7"/>
       <c r="AF45" s="17"/>
       <c r="AG45" s="7"/>
@@ -3986,20 +3978,21 @@
       </c>
       <c r="AI45" s="14"/>
       <c r="AJ45" s="6"/>
-      <c r="AK45" s="51" t="e">
+      <c r="AK45" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP45" s="23"/>
       <c r="AQ45" s="23"/>
-      <c r="AR45" s="25"/>
-      <c r="AS45" s="26"/>
+      <c r="AR45" s="23"/>
+      <c r="AS45" s="23"/>
     </row>
     <row r="46" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="60"/>
+        <v>21</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>48</v>
+      </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -4010,24 +4003,24 @@
       <c r="J46" s="7"/>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="41"/>
-      <c r="AC46" s="41"/>
-      <c r="AD46" s="41"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="40"/>
+      <c r="AD46" s="40"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="17"/>
       <c r="AG46" s="7"/>
@@ -4037,20 +4030,20 @@
       </c>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="6"/>
-      <c r="AK46" s="51" t="e">
+      <c r="AK46" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP46" s="23"/>
       <c r="AQ46" s="23"/>
-      <c r="AR46" s="25"/>
-      <c r="AS46" s="26"/>
+      <c r="AR46" s="24"/>
+      <c r="AS46" s="25"/>
     </row>
     <row r="47" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="61"/>
+        <v>22</v>
+      </c>
+      <c r="B47" s="60"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -4061,24 +4054,24 @@
       <c r="J47" s="7"/>
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40"/>
       <c r="AE47" s="7"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="7"/>
@@ -4087,57 +4080,108 @@
         <v>0</v>
       </c>
       <c r="AI47" s="14"/>
-      <c r="AJ47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK47" s="51" t="e">
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP47" s="23"/>
       <c r="AQ47" s="23"/>
-      <c r="AR47" s="25"/>
-      <c r="AS47" s="26"/>
-    </row>
-    <row r="48" spans="1:45">
-      <c r="A48" s="1" t="s">
+      <c r="AR47" s="24"/>
+      <c r="AS47" s="25"/>
+    </row>
+    <row r="48" spans="1:45" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="61"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="40"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK48" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP48" s="23"/>
+      <c r="AQ48" s="23"/>
+      <c r="AR48" s="24"/>
+      <c r="AS48" s="25"/>
+    </row>
+    <row r="49" spans="1:42">
+      <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="42:42">
-      <c r="AP51" s="1"/>
+    <row r="52" spans="1:42">
+      <c r="AP52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AJ2"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B32:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AR40:AR41">
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>IF(AR40&gt;=$AM18,1,0)=1</formula>
+  <conditionalFormatting sqref="AR41:AR42">
+    <cfRule type="expression" dxfId="2" priority="16">
+      <formula>IF(AR41&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU21">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>IF(AT15&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR45:AR47">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>IF(AR45&gt;=$AM22,1,0)=1</formula>
+  <conditionalFormatting sqref="AR46:AR48">
+    <cfRule type="expression" dxfId="0" priority="18">
+      <formula>IF(AR46&gt;=$AM22,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1"/>
+    <hyperlink ref="B49" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -405,6 +405,10 @@
   </si>
   <si>
     <t>终身免费保养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1262,10 +1266,10 @@
   <dimension ref="A1:AU52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AO31" sqref="AO31"/>
+      <selection pane="bottomRight" activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2146,7 +2150,9 @@
       <c r="AR12" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AS12" s="37"/>
+      <c r="AS12" s="37" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="44" t="s">
@@ -2218,7 +2224,10 @@
         <f>AI12</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="38"/>
+      <c r="AS13" s="48">
+        <f>AI25</f>
+        <v>0</v>
+      </c>
       <c r="AT13" s="23"/>
       <c r="AU13" s="23"/>
     </row>
@@ -2292,7 +2301,10 @@
         <f>AH12</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="38"/>
+      <c r="AS14" s="48">
+        <f>AH25</f>
+        <v>0</v>
+      </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
     </row>
@@ -2366,7 +2378,10 @@
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS15" s="38"/>
+      <c r="AS15" s="38" t="e">
+        <f>AS14/AS13</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AT15" s="24"/>
       <c r="AU15" s="24"/>
     </row>
@@ -2587,11 +2602,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="48">
-        <f>AH13</f>
+        <f t="shared" ref="AO19:AO27" si="12">AH13</f>
         <v>0</v>
       </c>
       <c r="AP19" s="48">
-        <f>AI13</f>
+        <f t="shared" ref="AP19:AP27" si="13">AI13</f>
         <v>0</v>
       </c>
       <c r="AT19" s="24"/>
@@ -2652,11 +2667,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO20" s="48">
-        <f>AH14</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP20" s="48">
-        <f>AI14</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT20" s="24"/>
@@ -2716,11 +2731,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO21" s="48">
-        <f>AH15</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP21" s="48">
-        <f>AI15</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT21" s="24"/>
@@ -2783,11 +2798,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO22" s="48">
-        <f>AH16</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP22" s="48">
-        <f>AI16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2847,11 +2862,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO23" s="48">
-        <f>AH17</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP23" s="48">
-        <f>AI17</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2909,11 +2924,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="48">
-        <f>AH18</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP24" s="48">
-        <f>AI18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2971,11 +2986,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO25" s="48">
-        <f>AH19</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP25" s="48">
-        <f>AI19</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3033,11 +3048,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO26" s="48">
-        <f>AH20</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP26" s="48">
-        <f>AI20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3095,11 +3110,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO27" s="48">
-        <f>AH21</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP27" s="48">
-        <f>AI21</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3284,13 +3299,13 @@
       <c r="AF31" s="17"/>
       <c r="AG31" s="40"/>
       <c r="AH31" s="14">
-        <f t="shared" ref="AH31" si="12">SUM((C31:AG31))</f>
+        <f t="shared" ref="AH31" si="14">SUM((C31:AG31))</f>
         <v>0</v>
       </c>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="50" t="e">
-        <f t="shared" ref="AK31" si="13">AH31/AI31</f>
+        <f t="shared" ref="AK31" si="15">AH31/AI31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO31" s="1"/>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -413,6 +413,14 @@
   </si>
   <si>
     <t>玻璃险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机下护板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划痕险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +906,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,13 +1274,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU52"/>
+  <dimension ref="A1:AU54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL12" sqref="AL12"/>
+      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1296,83 +1307,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
       <c r="AK1"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
       <c r="AK2"/>
     </row>
     <row r="3" spans="1:47" ht="20.100000000000001" customHeight="1">
@@ -1493,7 +1504,7 @@
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -1564,7 +1575,7 @@
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1597,7 +1608,7 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="14">
-        <f t="shared" ref="AH5:AH48" si="0">SUM((C5:AG5))</f>
+        <f t="shared" ref="AH5:AH50" si="0">SUM((C5:AG5))</f>
         <v>0</v>
       </c>
       <c r="AI5" s="14"/>
@@ -1605,7 +1616,7 @@
         <v>12</v>
       </c>
       <c r="AK5" s="50" t="e">
-        <f t="shared" ref="AK5:AK48" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK50" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5" s="1"/>
@@ -1641,7 +1652,7 @@
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1716,7 +1727,7 @@
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1791,7 +1802,7 @@
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -1860,7 +1871,7 @@
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -1911,23 +1922,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" s="38" t="e">
-        <f>AI34/AI32</f>
+        <f>AI36/AI34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP9" s="38" t="e">
-        <f>AI36/AI35</f>
+        <f>AI38/AI37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" s="38" t="e">
-        <f>AI38/AI37</f>
+        <f>AI40/AI39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR9" s="38" t="e">
-        <f>(AI42+AI43+AI41)/AI4</f>
+        <f>(AI44+AI45+AI43)/AI4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS9" s="38" t="e">
-        <f>1-AI48/AI4</f>
+        <f>1-AI50/AI4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1935,7 +1946,7 @@
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -1988,23 +1999,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="38" t="e">
-        <f>AH34/AH32</f>
+        <f>AH36/AH34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="38" t="e">
-        <f>AH36/AH35</f>
+        <f>AH38/AH37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="38" t="e">
-        <f>AH38/AH37</f>
+        <f>AH40/AH39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="38" t="e">
-        <f>(AH42+AH43+AH41)/AH4</f>
+        <f>(AH44+AH45+AH43)/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="38" t="e">
-        <f>1-AH48/AH4</f>
+        <f>1-AH50/AH4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2012,7 +2023,7 @@
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2087,7 +2098,7 @@
       <c r="A12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="60"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="30"/>
@@ -2158,7 +2169,7 @@
       <c r="A13" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -2217,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="48">
-        <f>AI40</f>
+        <f>AI42</f>
         <v>0</v>
       </c>
       <c r="AR13" s="48">
@@ -2235,7 +2246,7 @@
       <c r="A14" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="63"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -2294,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="48">
-        <f>AH40</f>
+        <f>AH42</f>
         <v>0</v>
       </c>
       <c r="AR14" s="48">
@@ -2312,7 +2323,7 @@
       <c r="A15" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -2389,7 +2400,7 @@
       <c r="A16" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="62"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -2439,7 +2450,7 @@
       <c r="A17" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2489,7 +2500,7 @@
       <c r="A18" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="62"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -2551,7 +2562,7 @@
       <c r="A19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -2602,11 +2613,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="48">
-        <f t="shared" ref="AO19:AO27" si="12">AH13</f>
+        <f>AH13</f>
         <v>0</v>
       </c>
       <c r="AP19" s="48">
-        <f t="shared" ref="AP19:AP27" si="13">AI13</f>
+        <f>AI13</f>
         <v>0</v>
       </c>
       <c r="AT19" s="24"/>
@@ -2616,7 +2627,7 @@
       <c r="A20" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="62"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -2667,11 +2678,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO20" s="48">
-        <f t="shared" si="12"/>
+        <f>AH14</f>
         <v>0</v>
       </c>
       <c r="AP20" s="48">
-        <f t="shared" si="13"/>
+        <f>AI14</f>
         <v>0</v>
       </c>
       <c r="AT20" s="24"/>
@@ -2681,7 +2692,7 @@
       <c r="A21" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2731,11 +2742,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO21" s="48">
-        <f t="shared" si="12"/>
+        <f>AH15</f>
         <v>0</v>
       </c>
       <c r="AP21" s="48">
-        <f t="shared" si="13"/>
+        <f>AI15</f>
         <v>0</v>
       </c>
       <c r="AT21" s="24"/>
@@ -2798,11 +2809,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO22" s="48">
-        <f t="shared" si="12"/>
+        <f>AH16</f>
         <v>0</v>
       </c>
       <c r="AP22" s="48">
-        <f t="shared" si="13"/>
+        <f>AI16</f>
         <v>0</v>
       </c>
     </row>
@@ -2862,11 +2873,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO23" s="48">
-        <f t="shared" si="12"/>
+        <f>AH17</f>
         <v>0</v>
       </c>
       <c r="AP23" s="48">
-        <f t="shared" si="13"/>
+        <f>AI17</f>
         <v>0</v>
       </c>
     </row>
@@ -2924,11 +2935,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="48">
-        <f t="shared" si="12"/>
+        <f>AH18</f>
         <v>0</v>
       </c>
       <c r="AP24" s="48">
-        <f t="shared" si="13"/>
+        <f>AI18</f>
         <v>0</v>
       </c>
     </row>
@@ -2986,19 +2997,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO25" s="48">
-        <f t="shared" si="12"/>
+        <f>AH19</f>
         <v>0</v>
       </c>
       <c r="AP25" s="48">
-        <f t="shared" si="13"/>
+        <f>AI19</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="51"/>
+        <v>100</v>
+      </c>
+      <c r="B26" s="55"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -3048,19 +3059,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO26" s="48">
-        <f t="shared" si="12"/>
+        <f>AH20</f>
         <v>0</v>
       </c>
       <c r="AP26" s="48">
-        <f t="shared" si="13"/>
+        <f>AI20</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="51"/>
+        <v>101</v>
+      </c>
+      <c r="B27" s="55"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -3110,17 +3121,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO27" s="48">
-        <f t="shared" si="12"/>
+        <f>AH21</f>
         <v>0</v>
       </c>
       <c r="AP27" s="48">
-        <f t="shared" si="13"/>
+        <f>AI21</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="19"/>
@@ -3174,19 +3185,19 @@
       <c r="AO28" s="1"/>
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="42"/>
+      <c r="A29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="51"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="16"/>
       <c r="M29" s="40"/>
       <c r="N29" s="40"/>
@@ -3206,9 +3217,9 @@
       <c r="AB29" s="40"/>
       <c r="AC29" s="40"/>
       <c r="AD29" s="40"/>
-      <c r="AE29" s="7"/>
+      <c r="AE29" s="40"/>
       <c r="AF29" s="17"/>
-      <c r="AG29" s="7"/>
+      <c r="AG29" s="40"/>
       <c r="AH29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3221,10 +3232,10 @@
       </c>
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="52"/>
+      <c r="A30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="51"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -3256,26 +3267,31 @@
       <c r="AE30" s="40"/>
       <c r="AF30" s="17"/>
       <c r="AG30" s="40"/>
-      <c r="AH30" s="14"/>
+      <c r="AH30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="6"/>
-      <c r="AK30" s="50"/>
-      <c r="AO30" s="1"/>
+      <c r="AK30" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="53"/>
+        <v>96</v>
+      </c>
+      <c r="B31" s="42"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="16"/>
       <c r="M31" s="40"/>
       <c r="N31" s="40"/>
@@ -3295,37 +3311,34 @@
       <c r="AB31" s="40"/>
       <c r="AC31" s="40"/>
       <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
+      <c r="AE31" s="7"/>
       <c r="AF31" s="17"/>
-      <c r="AG31" s="40"/>
+      <c r="AG31" s="7"/>
       <c r="AH31" s="14">
-        <f t="shared" ref="AH31" si="14">SUM((C31:AG31))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="50" t="e">
-        <f t="shared" ref="AK31" si="15">AH31/AI31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO31" s="1"/>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>45</v>
-      </c>
+      <c r="A32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="52"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
       <c r="L32" s="16"/>
       <c r="M32" s="40"/>
       <c r="N32" s="40"/>
@@ -3345,36 +3358,29 @@
       <c r="AB32" s="40"/>
       <c r="AC32" s="40"/>
       <c r="AD32" s="40"/>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="40"/>
       <c r="AF32" s="17"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="AG32" s="40"/>
+      <c r="AH32" s="14"/>
       <c r="AI32" s="14"/>
-      <c r="AJ32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK32" s="50" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="50"/>
+      <c r="AO32" s="1"/>
     </row>
     <row r="33" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="60"/>
+      <c r="A33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="53"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
       <c r="L33" s="16"/>
       <c r="M33" s="40"/>
       <c r="N33" s="40"/>
@@ -3394,25 +3400,28 @@
       <c r="AB33" s="40"/>
       <c r="AC33" s="40"/>
       <c r="AD33" s="40"/>
-      <c r="AE33" s="7"/>
+      <c r="AE33" s="40"/>
       <c r="AF33" s="17"/>
-      <c r="AG33" s="7"/>
+      <c r="AG33" s="40"/>
       <c r="AH33" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH33" si="12">SUM((C33:AG33))</f>
         <v>0</v>
       </c>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="50" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" ref="AK33" si="13">AH33/AI33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO33" s="1"/>
     </row>
     <row r="34" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="60"/>
+        <v>54</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>45</v>
+      </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -3449,7 +3458,9 @@
         <v>0</v>
       </c>
       <c r="AI34" s="14"/>
-      <c r="AJ34" s="6"/>
+      <c r="AJ34" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="AK34" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3457,9 +3468,9 @@
     </row>
     <row r="35" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="60"/>
+        <v>20</v>
+      </c>
+      <c r="B35" s="61"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -3503,8 +3514,8 @@
       </c>
     </row>
     <row r="36" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="15" t="s">
-        <v>61</v>
+      <c r="A36" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B36" s="61"/>
       <c r="C36" s="19"/>
@@ -3539,7 +3550,7 @@
       <c r="AF36" s="17"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="14">
-        <f>SUM((C36:AG36))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI36" s="14"/>
@@ -3550,12 +3561,10 @@
       </c>
     </row>
     <row r="37" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>46</v>
-      </c>
+      <c r="A37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="61"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -3588,23 +3597,21 @@
       <c r="AF37" s="17"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="14">
-        <f>SUM((C37:AG37))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI37" s="14"/>
-      <c r="AJ37" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="AJ37" s="6"/>
       <c r="AK37" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="60"/>
+      <c r="A38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="62"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -3637,13 +3644,11 @@
       <c r="AF38" s="17"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C38:AG38))</f>
         <v>0</v>
       </c>
       <c r="AI38" s="14"/>
-      <c r="AJ38" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="AJ38" s="6"/>
       <c r="AK38" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3651,9 +3656,11 @@
     </row>
     <row r="39" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="61"/>
+        <v>57</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>46</v>
+      </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -3682,28 +3689,27 @@
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
       <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
+      <c r="AE39" s="7"/>
       <c r="AF39" s="17"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C39:AG39))</f>
         <v>0</v>
       </c>
       <c r="AI39" s="14"/>
-      <c r="AJ39" s="6"/>
+      <c r="AJ39" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="AK39" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ39" s="23"/>
-      <c r="AR39" s="23"/>
-      <c r="AS39" s="23"/>
     </row>
     <row r="40" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="43"/>
+      <c r="A40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="61"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -3740,22 +3746,19 @@
         <v>0</v>
       </c>
       <c r="AI40" s="14"/>
-      <c r="AJ40" s="6"/>
+      <c r="AJ40" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="AK40" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ40" s="23"/>
-      <c r="AR40" s="23"/>
-      <c r="AS40" s="23"/>
     </row>
     <row r="41" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>47</v>
-      </c>
+      <c r="A41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="62"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -3784,7 +3787,7 @@
       <c r="AB41" s="40"/>
       <c r="AC41" s="40"/>
       <c r="AD41" s="40"/>
-      <c r="AE41" s="7"/>
+      <c r="AE41" s="40"/>
       <c r="AF41" s="17"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="14">
@@ -3798,14 +3801,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ41" s="23"/>
-      <c r="AR41" s="24"/>
-      <c r="AS41" s="25"/>
+      <c r="AR41" s="23"/>
+      <c r="AS41" s="23"/>
     </row>
     <row r="42" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="60"/>
+      <c r="A42" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="43"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -3838,7 +3841,7 @@
       <c r="AF42" s="17"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="14">
-        <f>SUM((C42:AG42))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI42" s="14"/>
@@ -3848,14 +3851,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ42" s="23"/>
-      <c r="AR42" s="24"/>
-      <c r="AS42" s="25"/>
+      <c r="AR42" s="23"/>
+      <c r="AS42" s="23"/>
     </row>
     <row r="43" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="60"/>
+        <v>82</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>47</v>
+      </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -3898,23 +3903,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ43" s="23"/>
-      <c r="AR43" s="23"/>
-      <c r="AS43" s="23"/>
+      <c r="AR43" s="24"/>
+      <c r="AS43" s="25"/>
     </row>
     <row r="44" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="60"/>
+        <v>83</v>
+      </c>
+      <c r="B44" s="61"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
       <c r="L44" s="16"/>
       <c r="M44" s="40"/>
       <c r="N44" s="40"/>
@@ -3934,11 +3939,11 @@
       <c r="AB44" s="40"/>
       <c r="AC44" s="40"/>
       <c r="AD44" s="40"/>
-      <c r="AE44" s="40"/>
+      <c r="AE44" s="7"/>
       <c r="AF44" s="17"/>
-      <c r="AG44" s="40"/>
+      <c r="AG44" s="7"/>
       <c r="AH44" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C44:AG44))</f>
         <v>0</v>
       </c>
       <c r="AI44" s="14"/>
@@ -3948,12 +3953,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ44" s="23"/>
-      <c r="AR44" s="23"/>
-      <c r="AS44" s="23"/>
+      <c r="AR44" s="24"/>
+      <c r="AS44" s="25"/>
     </row>
     <row r="45" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" s="61"/>
       <c r="C45" s="19"/>
@@ -3961,10 +3966,10 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="16"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="16"/>
       <c r="M45" s="40"/>
       <c r="N45" s="40"/>
@@ -4002,21 +4007,19 @@
       <c r="AS45" s="23"/>
     </row>
     <row r="46" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>48</v>
-      </c>
+      <c r="A46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="61"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="16"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
       <c r="L46" s="16"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
@@ -4036,9 +4039,9 @@
       <c r="AB46" s="40"/>
       <c r="AC46" s="40"/>
       <c r="AD46" s="40"/>
-      <c r="AE46" s="7"/>
+      <c r="AE46" s="40"/>
       <c r="AF46" s="17"/>
-      <c r="AG46" s="7"/>
+      <c r="AG46" s="40"/>
       <c r="AH46" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4049,16 +4052,15 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP46" s="23"/>
       <c r="AQ46" s="23"/>
-      <c r="AR46" s="24"/>
-      <c r="AS46" s="25"/>
+      <c r="AR46" s="23"/>
+      <c r="AS46" s="23"/>
     </row>
     <row r="47" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="60"/>
+      <c r="A47" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="62"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -4100,16 +4102,17 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP47" s="23"/>
       <c r="AQ47" s="23"/>
-      <c r="AR47" s="24"/>
-      <c r="AS47" s="25"/>
+      <c r="AR47" s="23"/>
+      <c r="AS47" s="23"/>
     </row>
     <row r="48" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="61"/>
+        <v>21</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>48</v>
+      </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -4146,57 +4149,158 @@
         <v>0</v>
       </c>
       <c r="AI48" s="14"/>
-      <c r="AJ48" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="AJ48" s="6"/>
       <c r="AK48" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP48" s="23"/>
       <c r="AQ48" s="23"/>
       <c r="AR48" s="24"/>
       <c r="AS48" s="25"/>
     </row>
-    <row r="49" spans="1:42">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:45" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="61"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="40"/>
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="40"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP49" s="23"/>
+      <c r="AQ49" s="23"/>
+      <c r="AR49" s="24"/>
+      <c r="AS49" s="25"/>
+    </row>
+    <row r="50" spans="1:45" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="62"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="40"/>
+      <c r="AD50" s="40"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK50" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP50" s="23"/>
+      <c r="AQ50" s="23"/>
+      <c r="AR50" s="24"/>
+      <c r="AS50" s="25"/>
+    </row>
+    <row r="51" spans="1:45">
+      <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:42">
-      <c r="AP52" s="1"/>
+    <row r="54" spans="1:45">
+      <c r="AP54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AJ2"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B39:B41"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B34:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AR41:AR42">
-    <cfRule type="expression" dxfId="2" priority="16">
-      <formula>IF(AR41&gt;=$AM18,1,0)=1</formula>
+  <conditionalFormatting sqref="AR43:AR44">
+    <cfRule type="expression" dxfId="2" priority="22">
+      <formula>IF(AR43&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU21">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>IF(AT15&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR46:AR48">
-    <cfRule type="expression" dxfId="0" priority="18">
-      <formula>IF(AR46&gt;=$AM22,1,0)=1</formula>
+  <conditionalFormatting sqref="AR48:AR50">
+    <cfRule type="expression" dxfId="0" priority="24">
+      <formula>IF(AR48&gt;=$AM22,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B49" r:id="rId1"/>
+    <hyperlink ref="B51" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -1280,7 +1280,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
+      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1834,15 +1834,15 @@
       <c r="AE8" s="7"/>
       <c r="AF8" s="17"/>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="AH8" s="14" t="e">
+        <f>LOOKUP(9E+307,C8:AG8)</f>
+        <v>#N/A</v>
       </c>
       <c r="AI8" s="14"/>
       <c r="AJ8" s="6"/>
       <c r="AK8" s="50" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="37" t="s">
@@ -2613,11 +2613,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="48">
-        <f>AH13</f>
+        <f t="shared" ref="AO19:AO27" si="12">AH13</f>
         <v>0</v>
       </c>
       <c r="AP19" s="48">
-        <f>AI13</f>
+        <f t="shared" ref="AP19:AP27" si="13">AI13</f>
         <v>0</v>
       </c>
       <c r="AT19" s="24"/>
@@ -2678,11 +2678,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO20" s="48">
-        <f>AH14</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP20" s="48">
-        <f>AI14</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT20" s="24"/>
@@ -2742,11 +2742,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO21" s="48">
-        <f>AH15</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP21" s="48">
-        <f>AI15</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT21" s="24"/>
@@ -2809,11 +2809,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO22" s="48">
-        <f>AH16</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP22" s="48">
-        <f>AI16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2873,11 +2873,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO23" s="48">
-        <f>AH17</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP23" s="48">
-        <f>AI17</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2935,11 +2935,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="48">
-        <f>AH18</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP24" s="48">
-        <f>AI18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2997,11 +2997,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO25" s="48">
-        <f>AH19</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP25" s="48">
-        <f>AI19</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3059,11 +3059,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO26" s="48">
-        <f>AH20</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP26" s="48">
-        <f>AI20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3121,11 +3121,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO27" s="48">
-        <f>AH21</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP27" s="48">
-        <f>AI21</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3404,13 +3404,13 @@
       <c r="AF33" s="17"/>
       <c r="AG33" s="40"/>
       <c r="AH33" s="14">
-        <f t="shared" ref="AH33" si="12">SUM((C33:AG33))</f>
+        <f t="shared" ref="AH33" si="14">SUM((C33:AG33))</f>
         <v>0</v>
       </c>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="50" t="e">
-        <f t="shared" ref="AK33" si="13">AH33/AI33</f>
+        <f t="shared" ref="AK33" si="15">AH33/AI33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO33" s="1"/>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -422,6 +422,10 @@
   <si>
     <t>划痕险</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续保数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -748,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,6 +910,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,13 +1281,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU54"/>
+  <dimension ref="A1:AU55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
+      <selection pane="bottomRight" activeCell="AM18" sqref="AM18:AP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1307,83 +1314,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
       <c r="AK1"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
       <c r="AK2"/>
     </row>
     <row r="3" spans="1:47" ht="20.100000000000001" customHeight="1">
@@ -1504,7 +1511,7 @@
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -1575,7 +1582,7 @@
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1608,7 +1615,7 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="14">
-        <f t="shared" ref="AH5:AH50" si="0">SUM((C5:AG5))</f>
+        <f t="shared" ref="AH5:AH51" si="0">SUM((C5:AG5))</f>
         <v>0</v>
       </c>
       <c r="AI5" s="14"/>
@@ -1616,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="AK5" s="50" t="e">
-        <f t="shared" ref="AK5:AK50" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK51" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5" s="1"/>
@@ -1636,11 +1643,11 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="38" t="e">
-        <f>AI22/(AI10-(AN9-50%)*AI10)</f>
+        <f>AI23/(AI10-(AN9-50%)*AI10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR5" s="38" t="e">
-        <f>AI23/AI10</f>
+        <f>AI24/AI10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS5" s="39" t="e">
@@ -1652,7 +1659,7 @@
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1711,11 +1718,11 @@
         <v>0</v>
       </c>
       <c r="AQ6" s="38" t="e">
-        <f>AH22/(AH10-(AN10-50%)*AH10)</f>
+        <f>AH23/(AH10-(AN10-50%)*AH10)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR6" s="38" t="e">
-        <f>AH23/AH10</f>
+        <f>AH24/AH10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="39" t="e">
@@ -1727,7 +1734,7 @@
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1802,7 +1809,7 @@
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -1871,7 +1878,7 @@
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -1922,23 +1929,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" s="38" t="e">
-        <f>AI36/AI34</f>
+        <f>AI37/AI35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP9" s="38" t="e">
-        <f>AI38/AI37</f>
+        <f>AI39/AI38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" s="38" t="e">
-        <f>AI40/AI39</f>
+        <f>AI41/AI40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR9" s="38" t="e">
-        <f>(AI44+AI45+AI43)/AI4</f>
+        <f>(AI45+AI46+AI44)/AI4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS9" s="38" t="e">
-        <f>1-AI50/AI4</f>
+        <f>1-AI51/AI4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1946,7 +1953,7 @@
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -1979,7 +1986,7 @@
       <c r="AF10" s="18"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="14">
-        <f t="shared" ref="AH10:AH21" si="5">SUM((C10:AG10))</f>
+        <f t="shared" ref="AH10:AH22" si="5">SUM((C10:AG10))</f>
         <v>0</v>
       </c>
       <c r="AI10" s="14"/>
@@ -1999,23 +2006,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="38" t="e">
-        <f>AH36/AH34</f>
+        <f>AH37/AH35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="38" t="e">
-        <f>AH38/AH37</f>
+        <f>AH39/AH38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="38" t="e">
-        <f>AH40/AH39</f>
+        <f>AH41/AH40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="38" t="e">
-        <f>(AH44+AH45+AH43)/AH4</f>
+        <f>(AH45+AH46+AH44)/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="38" t="e">
-        <f>1-AH50/AH4</f>
+        <f>1-AH51/AH4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2023,7 +2030,7 @@
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2098,7 +2105,7 @@
       <c r="A12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="30"/>
@@ -2169,7 +2176,7 @@
       <c r="A13" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -2224,11 +2231,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AP13" s="48">
-        <f>AI23</f>
+        <f>AI24</f>
         <v>0</v>
       </c>
       <c r="AQ13" s="48">
-        <f>AI42</f>
+        <f>AI43</f>
         <v>0</v>
       </c>
       <c r="AR13" s="48">
@@ -2236,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="48">
-        <f>AI25</f>
+        <f>AI26</f>
         <v>0</v>
       </c>
       <c r="AT13" s="23"/>
@@ -2246,7 +2253,7 @@
       <c r="A14" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -2301,11 +2308,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AP14" s="48">
-        <f>AH23</f>
+        <f>AH24</f>
         <v>0</v>
       </c>
       <c r="AQ14" s="48">
-        <f>AH42</f>
+        <f>AH43</f>
         <v>0</v>
       </c>
       <c r="AR14" s="48">
@@ -2313,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="48">
-        <f>AH25</f>
+        <f>AH26</f>
         <v>0</v>
       </c>
       <c r="AT14" s="23"/>
@@ -2323,7 +2330,7 @@
       <c r="A15" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -2400,7 +2407,7 @@
       <c r="A16" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="63"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -2450,7 +2457,7 @@
       <c r="A17" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="63"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2500,7 +2507,7 @@
       <c r="A18" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -2562,7 +2569,7 @@
       <c r="A19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -2613,11 +2620,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="48">
-        <f t="shared" ref="AO19:AO27" si="12">AH13</f>
+        <f>AH13</f>
         <v>0</v>
       </c>
       <c r="AP19" s="48">
-        <f t="shared" ref="AP19:AP27" si="13">AI13</f>
+        <f>AI13</f>
         <v>0</v>
       </c>
       <c r="AT19" s="24"/>
@@ -2627,7 +2634,7 @@
       <c r="A20" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -2678,11 +2685,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO20" s="48">
-        <f t="shared" si="12"/>
+        <f>AH14</f>
         <v>0</v>
       </c>
       <c r="AP20" s="48">
-        <f t="shared" si="13"/>
+        <f>AI14</f>
         <v>0</v>
       </c>
       <c r="AT20" s="24"/>
@@ -2692,7 +2699,7 @@
       <c r="A21" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2742,11 +2749,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO21" s="48">
-        <f t="shared" si="12"/>
+        <f>AH15</f>
         <v>0</v>
       </c>
       <c r="AP21" s="48">
-        <f t="shared" si="13"/>
+        <f>AI15</f>
         <v>0</v>
       </c>
       <c r="AT21" s="24"/>
@@ -2754,18 +2761,18 @@
     </row>
     <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="42"/>
+        <v>102</v>
+      </c>
+      <c r="B22" s="56"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="16"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -2785,22 +2792,19 @@
       <c r="AB22" s="40"/>
       <c r="AC22" s="40"/>
       <c r="AD22" s="40"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="35">
-        <f t="shared" si="0"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="26">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI22" s="35"/>
-      <c r="AJ22" s="36" t="s">
-        <v>5</v>
-      </c>
+      <c r="AJ22" s="36"/>
       <c r="AK22" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL22" s="49"/>
       <c r="AM22" s="37" t="s">
         <v>18</v>
       </c>
@@ -2809,24 +2813,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO22" s="48">
-        <f t="shared" si="12"/>
+        <f>AH16</f>
         <v>0</v>
       </c>
       <c r="AP22" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f>AI16</f>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
     </row>
     <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>56</v>
+      <c r="A23" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -2850,21 +2856,22 @@
       <c r="AB23" s="40"/>
       <c r="AC23" s="40"/>
       <c r="AD23" s="40"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="14">
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="6" t="s">
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="36" t="s">
         <v>5</v>
       </c>
       <c r="AK23" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="AL23" s="49"/>
       <c r="AM23" s="37" t="s">
         <v>39</v>
       </c>
@@ -2873,28 +2880,28 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO23" s="48">
-        <f t="shared" si="12"/>
+        <f>AH17</f>
         <v>0</v>
       </c>
       <c r="AP23" s="48">
-        <f t="shared" si="13"/>
+        <f>AI17</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="51"/>
+        <v>56</v>
+      </c>
+      <c r="B24" s="42"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="16"/>
       <c r="M24" s="40"/>
       <c r="N24" s="40"/>
@@ -2914,15 +2921,17 @@
       <c r="AB24" s="40"/>
       <c r="AC24" s="40"/>
       <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
+      <c r="AE24" s="7"/>
       <c r="AF24" s="17"/>
-      <c r="AG24" s="40"/>
+      <c r="AG24" s="7"/>
       <c r="AH24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI24" s="14"/>
-      <c r="AJ24" s="6"/>
+      <c r="AJ24" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="AK24" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -2935,19 +2944,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="48">
-        <f t="shared" si="12"/>
+        <f>AH18</f>
         <v>0</v>
       </c>
       <c r="AP24" s="48">
-        <f t="shared" si="13"/>
+        <f>AI18</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="54"/>
+        <v>91</v>
+      </c>
+      <c r="B25" s="51"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -2997,19 +3006,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO25" s="48">
-        <f t="shared" si="12"/>
+        <f>AH19</f>
         <v>0</v>
       </c>
       <c r="AP25" s="48">
-        <f t="shared" si="13"/>
+        <f>AI19</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="55"/>
+        <v>98</v>
+      </c>
+      <c r="B26" s="54"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -3059,17 +3068,17 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO26" s="48">
-        <f t="shared" si="12"/>
+        <f>AH20</f>
         <v>0</v>
       </c>
       <c r="AP26" s="48">
-        <f t="shared" si="13"/>
+        <f>AI20</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="55"/>
       <c r="C27" s="19"/>
@@ -3121,19 +3130,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO27" s="48">
-        <f t="shared" si="12"/>
+        <f>AH21</f>
         <v>0</v>
       </c>
       <c r="AP27" s="48">
-        <f t="shared" si="13"/>
+        <f>AI21</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="51"/>
+        <v>101</v>
+      </c>
+      <c r="B28" s="55"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -3186,7 +3195,7 @@
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="19"/>
@@ -3233,7 +3242,7 @@
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="51"/>
       <c r="C30" s="19"/>
@@ -3279,19 +3288,19 @@
       </c>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="42"/>
+      <c r="A31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="51"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
       <c r="L31" s="16"/>
       <c r="M31" s="40"/>
       <c r="N31" s="40"/>
@@ -3311,9 +3320,9 @@
       <c r="AB31" s="40"/>
       <c r="AC31" s="40"/>
       <c r="AD31" s="40"/>
-      <c r="AE31" s="7"/>
+      <c r="AE31" s="40"/>
       <c r="AF31" s="17"/>
-      <c r="AG31" s="7"/>
+      <c r="AG31" s="40"/>
       <c r="AH31" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3327,18 +3336,18 @@
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="52"/>
+        <v>96</v>
+      </c>
+      <c r="B32" s="42"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="16"/>
       <c r="M32" s="40"/>
       <c r="N32" s="40"/>
@@ -3358,20 +3367,25 @@
       <c r="AB32" s="40"/>
       <c r="AC32" s="40"/>
       <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
+      <c r="AE32" s="7"/>
       <c r="AF32" s="17"/>
-      <c r="AG32" s="40"/>
-      <c r="AH32" s="14"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="6"/>
-      <c r="AK32" s="50"/>
-      <c r="AO32" s="1"/>
+      <c r="AK32" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="53"/>
+        <v>97</v>
+      </c>
+      <c r="B33" s="52"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -3403,34 +3417,25 @@
       <c r="AE33" s="40"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="40"/>
-      <c r="AH33" s="14">
-        <f t="shared" ref="AH33" si="14">SUM((C33:AG33))</f>
-        <v>0</v>
-      </c>
+      <c r="AH33" s="14"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="6"/>
-      <c r="AK33" s="50" t="e">
-        <f t="shared" ref="AK33" si="15">AH33/AI33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO33" s="1"/>
+      <c r="AK33" s="50"/>
     </row>
     <row r="34" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>45</v>
-      </c>
+      <c r="A34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="53"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
       <c r="L34" s="16"/>
       <c r="M34" s="40"/>
       <c r="N34" s="40"/>
@@ -3450,27 +3455,27 @@
       <c r="AB34" s="40"/>
       <c r="AC34" s="40"/>
       <c r="AD34" s="40"/>
-      <c r="AE34" s="7"/>
+      <c r="AE34" s="40"/>
       <c r="AF34" s="17"/>
-      <c r="AG34" s="7"/>
+      <c r="AG34" s="40"/>
       <c r="AH34" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH34" si="12">SUM((C34:AG34))</f>
         <v>0</v>
       </c>
       <c r="AI34" s="14"/>
-      <c r="AJ34" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="AJ34" s="6"/>
       <c r="AK34" s="50" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AK34" si="13">AH34/AI34</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="61"/>
+        <v>54</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>45</v>
+      </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -3507,7 +3512,9 @@
         <v>0</v>
       </c>
       <c r="AI35" s="14"/>
-      <c r="AJ35" s="6"/>
+      <c r="AJ35" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="AK35" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3515,9 +3522,9 @@
     </row>
     <row r="36" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="61"/>
+        <v>20</v>
+      </c>
+      <c r="B36" s="62"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -3562,9 +3569,9 @@
     </row>
     <row r="37" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="61"/>
+        <v>55</v>
+      </c>
+      <c r="B37" s="62"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -3608,8 +3615,8 @@
       </c>
     </row>
     <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>61</v>
+      <c r="A38" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B38" s="62"/>
       <c r="C38" s="19"/>
@@ -3644,7 +3651,7 @@
       <c r="AF38" s="17"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="14">
-        <f>SUM((C38:AG38))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI38" s="14"/>
@@ -3655,12 +3662,10 @@
       </c>
     </row>
     <row r="39" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>46</v>
-      </c>
+      <c r="A39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="63"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -3697,9 +3702,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="14"/>
-      <c r="AJ39" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="AJ39" s="6"/>
       <c r="AK39" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3707,9 +3710,11 @@
     </row>
     <row r="40" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="61"/>
+        <v>57</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>46</v>
+      </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -3742,12 +3747,12 @@
       <c r="AF40" s="17"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C40:AG40))</f>
         <v>0</v>
       </c>
       <c r="AI40" s="14"/>
-      <c r="AJ40" s="8" t="s">
-        <v>8</v>
+      <c r="AJ40" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="AK40" s="50" t="e">
         <f t="shared" si="1"/>
@@ -3756,7 +3761,7 @@
     </row>
     <row r="41" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B41" s="62"/>
       <c r="C41" s="19"/>
@@ -3787,7 +3792,7 @@
       <c r="AB41" s="40"/>
       <c r="AC41" s="40"/>
       <c r="AD41" s="40"/>
-      <c r="AE41" s="40"/>
+      <c r="AE41" s="7"/>
       <c r="AF41" s="17"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="14">
@@ -3795,20 +3800,19 @@
         <v>0</v>
       </c>
       <c r="AI41" s="14"/>
-      <c r="AJ41" s="6"/>
+      <c r="AJ41" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="AK41" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ41" s="23"/>
-      <c r="AR41" s="23"/>
-      <c r="AS41" s="23"/>
     </row>
     <row r="42" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="43"/>
+      <c r="A42" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="63"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -3837,7 +3841,7 @@
       <c r="AB42" s="40"/>
       <c r="AC42" s="40"/>
       <c r="AD42" s="40"/>
-      <c r="AE42" s="7"/>
+      <c r="AE42" s="40"/>
       <c r="AF42" s="17"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="14">
@@ -3855,12 +3859,10 @@
       <c r="AS42" s="23"/>
     </row>
     <row r="43" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="60" t="s">
-        <v>47</v>
-      </c>
+      <c r="A43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="43"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -3903,14 +3905,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ43" s="23"/>
-      <c r="AR43" s="24"/>
-      <c r="AS43" s="25"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
     </row>
     <row r="44" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="61"/>
+        <v>82</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>47</v>
+      </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -3943,7 +3947,7 @@
       <c r="AF44" s="17"/>
       <c r="AG44" s="7"/>
       <c r="AH44" s="14">
-        <f>SUM((C44:AG44))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI44" s="14"/>
@@ -3958,9 +3962,9 @@
     </row>
     <row r="45" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="61"/>
+        <v>83</v>
+      </c>
+      <c r="B45" s="62"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -3993,7 +3997,7 @@
       <c r="AF45" s="17"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C45:AG45))</f>
         <v>0</v>
       </c>
       <c r="AI45" s="14"/>
@@ -4003,23 +4007,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ45" s="23"/>
-      <c r="AR45" s="23"/>
-      <c r="AS45" s="23"/>
+      <c r="AR45" s="24"/>
+      <c r="AS45" s="25"/>
     </row>
     <row r="46" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="61"/>
+        <v>84</v>
+      </c>
+      <c r="B46" s="62"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
       <c r="L46" s="16"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
@@ -4039,9 +4043,9 @@
       <c r="AB46" s="40"/>
       <c r="AC46" s="40"/>
       <c r="AD46" s="40"/>
-      <c r="AE46" s="40"/>
+      <c r="AE46" s="7"/>
       <c r="AF46" s="17"/>
-      <c r="AG46" s="40"/>
+      <c r="AG46" s="7"/>
       <c r="AH46" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4058,7 +4062,7 @@
     </row>
     <row r="47" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" s="62"/>
       <c r="C47" s="19"/>
@@ -4066,10 +4070,10 @@
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="16"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
       <c r="L47" s="16"/>
       <c r="M47" s="40"/>
       <c r="N47" s="40"/>
@@ -4089,9 +4093,9 @@
       <c r="AB47" s="40"/>
       <c r="AC47" s="40"/>
       <c r="AD47" s="40"/>
-      <c r="AE47" s="7"/>
+      <c r="AE47" s="40"/>
       <c r="AF47" s="17"/>
-      <c r="AG47" s="7"/>
+      <c r="AG47" s="40"/>
       <c r="AH47" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4107,12 +4111,10 @@
       <c r="AS47" s="23"/>
     </row>
     <row r="48" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>48</v>
-      </c>
+      <c r="A48" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="63"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -4155,14 +4157,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ48" s="23"/>
-      <c r="AR48" s="24"/>
-      <c r="AS48" s="25"/>
+      <c r="AR48" s="23"/>
+      <c r="AS48" s="23"/>
     </row>
     <row r="49" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="61"/>
+        <v>21</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -4204,14 +4208,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP49" s="23"/>
       <c r="AQ49" s="23"/>
       <c r="AR49" s="24"/>
       <c r="AS49" s="25"/>
     </row>
     <row r="50" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B50" s="62"/>
       <c r="C50" s="19"/>
@@ -4250,9 +4253,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="14"/>
-      <c r="AJ50" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="AJ50" s="6"/>
       <c r="AK50" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4262,45 +4263,98 @@
       <c r="AR50" s="24"/>
       <c r="AS50" s="25"/>
     </row>
-    <row r="51" spans="1:45">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:45" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="63"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="40"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK51" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP51" s="23"/>
+      <c r="AQ51" s="23"/>
+      <c r="AR51" s="24"/>
+      <c r="AS51" s="25"/>
+    </row>
+    <row r="52" spans="1:45">
+      <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
-      <c r="AP54" s="1"/>
+    <row r="55" spans="1:45">
+      <c r="AP55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AJ2"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B40:B42"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B35:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AR43:AR44">
-    <cfRule type="expression" dxfId="2" priority="22">
-      <formula>IF(AR43&gt;=$AM18,1,0)=1</formula>
+  <conditionalFormatting sqref="AR44:AR45">
+    <cfRule type="expression" dxfId="2" priority="28">
+      <formula>IF(AR44&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT15:AU21">
-    <cfRule type="expression" dxfId="1" priority="23">
+  <conditionalFormatting sqref="AT15:AU22">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>IF(AT15&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR48:AR50">
-    <cfRule type="expression" dxfId="0" priority="24">
-      <formula>IF(AR48&gt;=$AM22,1,0)=1</formula>
+  <conditionalFormatting sqref="AR49:AR51">
+    <cfRule type="expression" dxfId="0" priority="30">
+      <formula>IF(AR49&gt;=$AM22,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1"/>
+    <hyperlink ref="B52" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -426,6 +426,10 @@
   <si>
     <t>续保数</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红旭汇绑定数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -752,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -910,6 +914,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1281,13 +1288,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU55"/>
+  <dimension ref="A1:AU56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AM18" sqref="AM18:AP28"/>
+      <selection pane="bottomRight" activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1314,83 +1321,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
       <c r="AK1"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
       <c r="AK2"/>
     </row>
     <row r="3" spans="1:47" ht="20.100000000000001" customHeight="1">
@@ -1511,7 +1518,7 @@
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -1582,7 +1589,7 @@
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1615,7 +1622,7 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="14">
-        <f t="shared" ref="AH5:AH51" si="0">SUM((C5:AG5))</f>
+        <f t="shared" ref="AH5:AH52" si="0">SUM((C5:AG5))</f>
         <v>0</v>
       </c>
       <c r="AI5" s="14"/>
@@ -1623,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="AK5" s="50" t="e">
-        <f t="shared" ref="AK5:AK51" si="1">AH5/AI5</f>
+        <f t="shared" ref="AK5:AK52" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5" s="1"/>
@@ -1659,7 +1666,7 @@
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1734,7 +1741,7 @@
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1809,7 +1816,7 @@
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -1878,7 +1885,7 @@
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -1929,23 +1936,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" s="38" t="e">
-        <f>AI37/AI35</f>
+        <f>AI38/AI36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP9" s="38" t="e">
-        <f>AI39/AI38</f>
+        <f>AI40/AI39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" s="38" t="e">
-        <f>AI41/AI40</f>
+        <f>AI42/AI41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR9" s="38" t="e">
-        <f>(AI45+AI46+AI44)/AI4</f>
+        <f>(AI46+AI47+AI45)/AI4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS9" s="38" t="e">
-        <f>1-AI51/AI4</f>
+        <f>1-AI52/AI4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1953,7 +1960,7 @@
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
@@ -2006,23 +2013,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="38" t="e">
-        <f>AH37/AH35</f>
+        <f>AH38/AH36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="38" t="e">
-        <f>AH39/AH38</f>
+        <f>AH40/AH39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="38" t="e">
-        <f>AH41/AH40</f>
+        <f>AH42/AH41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="38" t="e">
-        <f>(AH45+AH46+AH44)/AH4</f>
+        <f>(AH46+AH47+AH45)/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="38" t="e">
-        <f>1-AH51/AH4</f>
+        <f>1-AH52/AH4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2030,7 +2037,7 @@
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2105,7 +2112,7 @@
       <c r="A12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="30"/>
@@ -2176,7 +2183,7 @@
       <c r="A13" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -2235,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="48">
-        <f>AI43</f>
+        <f>AI44</f>
         <v>0</v>
       </c>
       <c r="AR13" s="48">
@@ -2253,7 +2260,7 @@
       <c r="A14" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="64"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -2312,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="48">
-        <f>AH43</f>
+        <f>AH44</f>
         <v>0</v>
       </c>
       <c r="AR14" s="48">
@@ -2330,7 +2337,7 @@
       <c r="A15" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -2407,7 +2414,7 @@
       <c r="A16" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="64"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -2457,7 +2464,7 @@
       <c r="A17" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2507,7 +2514,7 @@
       <c r="A18" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="64"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -2569,7 +2576,7 @@
       <c r="A19" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -2620,11 +2627,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="48">
-        <f>AH13</f>
+        <f t="shared" ref="AO19:AO27" si="12">AH13</f>
         <v>0</v>
       </c>
       <c r="AP19" s="48">
-        <f>AI13</f>
+        <f t="shared" ref="AP19:AP27" si="13">AI13</f>
         <v>0</v>
       </c>
       <c r="AT19" s="24"/>
@@ -2634,7 +2641,7 @@
       <c r="A20" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="64"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -2685,11 +2692,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO20" s="48">
-        <f>AH14</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP20" s="48">
-        <f>AI14</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT20" s="24"/>
@@ -2699,7 +2706,7 @@
       <c r="A21" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="64"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2749,11 +2756,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO21" s="48">
-        <f>AH15</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP21" s="48">
-        <f>AI15</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT21" s="24"/>
@@ -2813,11 +2820,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO22" s="48">
-        <f>AH16</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP22" s="48">
-        <f>AI16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT22" s="24"/>
@@ -2880,11 +2887,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO23" s="48">
-        <f>AH17</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP23" s="48">
-        <f>AI17</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2944,11 +2951,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="48">
-        <f>AH18</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP24" s="48">
-        <f>AI18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3006,11 +3013,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO25" s="48">
-        <f>AH19</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP25" s="48">
-        <f>AI19</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3068,11 +3075,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO26" s="48">
-        <f>AH20</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP26" s="48">
-        <f>AI20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3130,11 +3137,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO27" s="48">
-        <f>AH21</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP27" s="48">
-        <f>AI21</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3289,9 +3296,9 @@
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="51"/>
+        <v>103</v>
+      </c>
+      <c r="B31" s="57"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -3335,19 +3342,19 @@
       </c>
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="42"/>
+      <c r="A32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="51"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
       <c r="L32" s="16"/>
       <c r="M32" s="40"/>
       <c r="N32" s="40"/>
@@ -3367,9 +3374,9 @@
       <c r="AB32" s="40"/>
       <c r="AC32" s="40"/>
       <c r="AD32" s="40"/>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="40"/>
       <c r="AF32" s="17"/>
-      <c r="AG32" s="7"/>
+      <c r="AG32" s="40"/>
       <c r="AH32" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3383,18 +3390,18 @@
     </row>
     <row r="33" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="52"/>
+        <v>96</v>
+      </c>
+      <c r="B33" s="42"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="16"/>
       <c r="M33" s="40"/>
       <c r="N33" s="40"/>
@@ -3414,19 +3421,25 @@
       <c r="AB33" s="40"/>
       <c r="AC33" s="40"/>
       <c r="AD33" s="40"/>
-      <c r="AE33" s="40"/>
+      <c r="AE33" s="7"/>
       <c r="AF33" s="17"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="14"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="6"/>
-      <c r="AK33" s="50"/>
+      <c r="AK33" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="34" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="53"/>
+        <v>97</v>
+      </c>
+      <c r="B34" s="52"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -3458,33 +3471,25 @@
       <c r="AE34" s="40"/>
       <c r="AF34" s="17"/>
       <c r="AG34" s="40"/>
-      <c r="AH34" s="14">
-        <f t="shared" ref="AH34" si="12">SUM((C34:AG34))</f>
-        <v>0</v>
-      </c>
+      <c r="AH34" s="14"/>
       <c r="AI34" s="14"/>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="50" t="e">
-        <f t="shared" ref="AK34" si="13">AH34/AI34</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AK34" s="50"/>
     </row>
     <row r="35" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>45</v>
-      </c>
+      <c r="A35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="53"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
       <c r="L35" s="16"/>
       <c r="M35" s="40"/>
       <c r="N35" s="40"/>
@@ -3504,27 +3509,27 @@
       <c r="AB35" s="40"/>
       <c r="AC35" s="40"/>
       <c r="AD35" s="40"/>
-      <c r="AE35" s="7"/>
+      <c r="AE35" s="40"/>
       <c r="AF35" s="17"/>
-      <c r="AG35" s="7"/>
+      <c r="AG35" s="40"/>
       <c r="AH35" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH35" si="14">SUM((C35:AG35))</f>
         <v>0</v>
       </c>
       <c r="AI35" s="14"/>
-      <c r="AJ35" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="AJ35" s="6"/>
       <c r="AK35" s="50" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AK35" si="15">AH35/AI35</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="62"/>
+        <v>54</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>45</v>
+      </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -3561,7 +3566,9 @@
         <v>0</v>
       </c>
       <c r="AI36" s="14"/>
-      <c r="AJ36" s="6"/>
+      <c r="AJ36" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="AK36" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3569,9 +3576,9 @@
     </row>
     <row r="37" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="62"/>
+        <v>20</v>
+      </c>
+      <c r="B37" s="63"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -3616,9 +3623,9 @@
     </row>
     <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="62"/>
+        <v>55</v>
+      </c>
+      <c r="B38" s="63"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -3662,8 +3669,8 @@
       </c>
     </row>
     <row r="39" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="15" t="s">
-        <v>61</v>
+      <c r="A39" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="19"/>
@@ -3698,7 +3705,7 @@
       <c r="AF39" s="17"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="14">
-        <f>SUM((C39:AG39))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI39" s="14"/>
@@ -3709,12 +3716,10 @@
       </c>
     </row>
     <row r="40" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="61" t="s">
-        <v>46</v>
-      </c>
+      <c r="A40" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="64"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -3751,9 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="14"/>
-      <c r="AJ40" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="AJ40" s="6"/>
       <c r="AK40" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3761,9 +3764,11 @@
     </row>
     <row r="41" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="62"/>
+        <v>57</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>46</v>
+      </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -3796,12 +3801,12 @@
       <c r="AF41" s="17"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C41:AG41))</f>
         <v>0</v>
       </c>
       <c r="AI41" s="14"/>
-      <c r="AJ41" s="8" t="s">
-        <v>8</v>
+      <c r="AJ41" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="AK41" s="50" t="e">
         <f t="shared" si="1"/>
@@ -3810,7 +3815,7 @@
     </row>
     <row r="42" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B42" s="63"/>
       <c r="C42" s="19"/>
@@ -3841,7 +3846,7 @@
       <c r="AB42" s="40"/>
       <c r="AC42" s="40"/>
       <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
+      <c r="AE42" s="7"/>
       <c r="AF42" s="17"/>
       <c r="AG42" s="7"/>
       <c r="AH42" s="14">
@@ -3849,20 +3854,19 @@
         <v>0</v>
       </c>
       <c r="AI42" s="14"/>
-      <c r="AJ42" s="6"/>
+      <c r="AJ42" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="AK42" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ42" s="23"/>
-      <c r="AR42" s="23"/>
-      <c r="AS42" s="23"/>
     </row>
     <row r="43" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="43"/>
+      <c r="A43" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="64"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -3891,7 +3895,7 @@
       <c r="AB43" s="40"/>
       <c r="AC43" s="40"/>
       <c r="AD43" s="40"/>
-      <c r="AE43" s="7"/>
+      <c r="AE43" s="40"/>
       <c r="AF43" s="17"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="14">
@@ -3909,12 +3913,10 @@
       <c r="AS43" s="23"/>
     </row>
     <row r="44" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="61" t="s">
-        <v>47</v>
-      </c>
+      <c r="A44" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="43"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -3957,14 +3959,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ44" s="23"/>
-      <c r="AR44" s="24"/>
-      <c r="AS44" s="25"/>
+      <c r="AR44" s="23"/>
+      <c r="AS44" s="23"/>
     </row>
     <row r="45" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="62"/>
+        <v>82</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>47</v>
+      </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -3997,7 +4001,7 @@
       <c r="AF45" s="17"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="14">
-        <f>SUM((C45:AG45))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI45" s="14"/>
@@ -4012,9 +4016,9 @@
     </row>
     <row r="46" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="62"/>
+        <v>83</v>
+      </c>
+      <c r="B46" s="63"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -4047,7 +4051,7 @@
       <c r="AF46" s="17"/>
       <c r="AG46" s="7"/>
       <c r="AH46" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C46:AG46))</f>
         <v>0</v>
       </c>
       <c r="AI46" s="14"/>
@@ -4057,23 +4061,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ46" s="23"/>
-      <c r="AR46" s="23"/>
-      <c r="AS46" s="23"/>
+      <c r="AR46" s="24"/>
+      <c r="AS46" s="25"/>
     </row>
     <row r="47" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="62"/>
+        <v>84</v>
+      </c>
+      <c r="B47" s="63"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="16"/>
       <c r="M47" s="40"/>
       <c r="N47" s="40"/>
@@ -4093,9 +4097,9 @@
       <c r="AB47" s="40"/>
       <c r="AC47" s="40"/>
       <c r="AD47" s="40"/>
-      <c r="AE47" s="40"/>
+      <c r="AE47" s="7"/>
       <c r="AF47" s="17"/>
-      <c r="AG47" s="40"/>
+      <c r="AG47" s="7"/>
       <c r="AH47" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4112,7 +4116,7 @@
     </row>
     <row r="48" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="63"/>
       <c r="C48" s="19"/>
@@ -4120,10 +4124,10 @@
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="16"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
       <c r="L48" s="16"/>
       <c r="M48" s="40"/>
       <c r="N48" s="40"/>
@@ -4143,9 +4147,9 @@
       <c r="AB48" s="40"/>
       <c r="AC48" s="40"/>
       <c r="AD48" s="40"/>
-      <c r="AE48" s="7"/>
+      <c r="AE48" s="40"/>
       <c r="AF48" s="17"/>
-      <c r="AG48" s="7"/>
+      <c r="AG48" s="40"/>
       <c r="AH48" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4161,12 +4165,10 @@
       <c r="AS48" s="23"/>
     </row>
     <row r="49" spans="1:45" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="61" t="s">
-        <v>48</v>
-      </c>
+      <c r="A49" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="64"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -4209,14 +4211,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ49" s="23"/>
-      <c r="AR49" s="24"/>
-      <c r="AS49" s="25"/>
+      <c r="AR49" s="23"/>
+      <c r="AS49" s="23"/>
     </row>
     <row r="50" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="62"/>
+        <v>21</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>48</v>
+      </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -4258,14 +4262,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP50" s="23"/>
       <c r="AQ50" s="23"/>
       <c r="AR50" s="24"/>
       <c r="AS50" s="25"/>
     </row>
     <row r="51" spans="1:45" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="13" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B51" s="63"/>
       <c r="C51" s="19"/>
@@ -4304,9 +4307,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="14"/>
-      <c r="AJ51" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="AJ51" s="6"/>
       <c r="AK51" s="50" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4316,31 +4317,84 @@
       <c r="AR51" s="24"/>
       <c r="AS51" s="25"/>
     </row>
-    <row r="52" spans="1:45">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:45" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="64"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="40"/>
+      <c r="AC52" s="40"/>
+      <c r="AD52" s="40"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="17"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="14"/>
+      <c r="AJ52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK52" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP52" s="23"/>
+      <c r="AQ52" s="23"/>
+      <c r="AR52" s="24"/>
+      <c r="AS52" s="25"/>
+    </row>
+    <row r="53" spans="1:45" ht="409.6">
+      <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
-      <c r="AP55" s="1"/>
+    <row r="56" spans="1:45">
+      <c r="AP56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:AJ2"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B41:B43"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B36:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AR44:AR45">
+  <conditionalFormatting sqref="AR45:AR46">
     <cfRule type="expression" dxfId="2" priority="28">
-      <formula>IF(AR44&gt;=$AM18,1,0)=1</formula>
+      <formula>IF(AR45&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU22">
@@ -4348,13 +4402,13 @@
       <formula>IF(AT15&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR49:AR51">
+  <conditionalFormatting sqref="AR50:AR52">
     <cfRule type="expression" dxfId="0" priority="30">
-      <formula>IF(AR49&gt;=$AM22,1,0)=1</formula>
+      <formula>IF(AR50&gt;=$AM22,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B52" r:id="rId1"/>
+    <hyperlink ref="B53" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -404,10 +404,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>终身免费保养</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玻璃险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -428,7 +424,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>红旭汇绑定数</t>
+    <t>免费保养</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中红旭汇绑定台次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +832,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -929,6 +926,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,21 +967,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1288,13 +1280,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU56"/>
+  <dimension ref="A1:AU53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI31" sqref="AI31"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1321,83 +1313,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
       <c r="AK1"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
       <c r="AK2"/>
     </row>
     <row r="3" spans="1:47" ht="20.100000000000001" customHeight="1">
@@ -1506,7 +1498,7 @@
       <c r="AI3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AJ3" s="41" t="s">
+      <c r="AJ3" s="40" t="s">
         <v>3</v>
       </c>
       <c r="AK3" s="22" t="s">
@@ -1518,7 +1510,7 @@
       <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -1526,30 +1518,30 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="7"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
       <c r="AF4" s="17"/>
-      <c r="AG4" s="7"/>
+      <c r="AG4" s="39"/>
       <c r="AH4" s="14">
         <f>SUM((C4:AG4))</f>
         <v>0</v>
@@ -1558,30 +1550,30 @@
       <c r="AJ4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="50" t="e">
+      <c r="AK4" s="49" t="e">
         <f>AH4/AI4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL4" s="1"/>
-      <c r="AM4" s="37" t="s">
+      <c r="AM4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AN4" s="37" t="s">
+      <c r="AN4" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="AO4" s="37" t="s">
+      <c r="AO4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" s="37" t="s">
+      <c r="AP4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="AQ4" s="37" t="s">
+      <c r="AQ4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AR4" s="37" t="s">
+      <c r="AR4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AS4" s="37" t="s">
+      <c r="AS4" s="36" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1589,7 +1581,7 @@
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1597,30 +1589,30 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="7"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
       <c r="AF5" s="17"/>
-      <c r="AG5" s="7"/>
+      <c r="AG5" s="39"/>
       <c r="AH5" s="14">
         <f t="shared" ref="AH5:AH52" si="0">SUM((C5:AG5))</f>
         <v>0</v>
@@ -1629,119 +1621,119 @@
       <c r="AJ5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AK5" s="50" t="e">
+      <c r="AK5" s="49" t="e">
         <f t="shared" ref="AK5:AK52" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="37" t="s">
+      <c r="AM5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AN5" s="48">
+      <c r="AN5" s="47">
         <f>AI4</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="38" t="e">
+      <c r="AO5" s="37" t="e">
         <f>AI5/AI4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP5" s="48">
-        <f>AI10</f>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="38" t="e">
-        <f>AI23/(AI10-(AN9-50%)*AI10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR5" s="38" t="e">
-        <f>AI24/AI10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS5" s="39" t="e">
-        <f>AI10/AI4</f>
+      <c r="AP5" s="47">
+        <f>AI11</f>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="37" t="e">
+        <f>AI24/(AI11-(AN9-50%)*AI11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR5" s="37" t="e">
+        <f>AI25/AI11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS5" s="38" t="e">
+        <f>AI11/AI4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="63"/>
+        <v>103</v>
+      </c>
+      <c r="B6" s="56"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="16"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="7"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
       <c r="AF6" s="17"/>
-      <c r="AG6" s="7"/>
+      <c r="AG6" s="39"/>
       <c r="AH6" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C6:AG6))</f>
         <v>0</v>
       </c>
       <c r="AI6" s="14"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="50" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK6" s="49" t="e">
+        <f>AH6/AI6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="37" t="s">
+      <c r="AM6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AN6" s="48">
+      <c r="AN6" s="47">
         <f>AH4</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="38" t="e">
+      <c r="AO6" s="37" t="e">
         <f>AH5/AH4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP6" s="48">
-        <f>AH10</f>
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="38" t="e">
-        <f>AH23/(AH10-(AN10-50%)*AH10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR6" s="38" t="e">
-        <f>AH24/AH10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS6" s="39" t="e">
-        <f>AH10/AH4</f>
+      <c r="AP6" s="47">
+        <f>AH11</f>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="37" t="e">
+        <f>AH24/(AH11-(AN10-50%)*AH11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR6" s="37" t="e">
+        <f>AH25/AH11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS6" s="38" t="e">
+        <f>AH11/AH4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="63"/>
+        <v>73</v>
+      </c>
+      <c r="B7" s="58"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1749,74 +1741,74 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="7"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
       <c r="AF7" s="17"/>
-      <c r="AG7" s="7"/>
+      <c r="AG7" s="39"/>
       <c r="AH7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="6"/>
-      <c r="AK7" s="50" t="e">
+      <c r="AK7" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL7" s="1"/>
-      <c r="AM7" s="37" t="s">
+      <c r="AM7" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="AN7" s="38" t="e">
+      <c r="AN7" s="37" t="e">
         <f>AN6/AN5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="38" t="e">
+      <c r="AO7" s="37" t="e">
         <f t="shared" ref="AO7:AP7" si="2">AO6/AO5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP7" s="38" t="e">
+      <c r="AP7" s="37" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="38" t="e">
+      <c r="AQ7" s="37" t="e">
         <f>AQ6/AQ5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR7" s="38" t="e">
+      <c r="AR7" s="37" t="e">
         <f t="shared" ref="AR7" si="3">AR6/AR5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS7" s="38" t="e">
+      <c r="AS7" s="37" t="e">
         <f t="shared" ref="AS7" si="4">AS6/AS5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="63"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="58"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -1824,68 +1816,68 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="7"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
       <c r="AF8" s="17"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="14" t="e">
-        <f>LOOKUP(9E+307,C8:AG8)</f>
-        <v>#N/A</v>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AI8" s="14"/>
       <c r="AJ8" s="6"/>
-      <c r="AK8" s="50" t="e">
+      <c r="AK8" s="49" t="e">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="37" t="s">
+      <c r="AM8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AN8" s="37" t="s">
+      <c r="AN8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="AO8" s="37" t="s">
+      <c r="AO8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AP8" s="37" t="s">
+      <c r="AP8" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AQ8" s="37" t="s">
+      <c r="AQ8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AR8" s="37" t="s">
+      <c r="AR8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AS8" s="37" t="s">
+      <c r="AS8" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="63"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="58"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -1893,151 +1885,149 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="7"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
       <c r="AF9" s="17"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="14" t="e">
+        <f>LOOKUP(9E+307,C9:AG9)</f>
+        <v>#N/A</v>
       </c>
       <c r="AI9" s="14"/>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="50" t="e">
+      <c r="AK9" s="49" t="e">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="37" t="s">
+      <c r="AM9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AN9" s="38" t="e">
-        <f>AI12/AI10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO9" s="38" t="e">
+      <c r="AN9" s="37" t="e">
+        <f>AI13/AI11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO9" s="37" t="e">
         <f>AI38/AI36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP9" s="38" t="e">
+      <c r="AP9" s="37" t="e">
         <f>AI40/AI39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ9" s="38" t="e">
+      <c r="AQ9" s="37" t="e">
         <f>AI42/AI41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="38" t="e">
+      <c r="AR9" s="37" t="e">
         <f>(AI46+AI47+AI45)/AI4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS9" s="38" t="e">
+      <c r="AS9" s="37" t="e">
         <f>1-AI52/AI4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="63"/>
+        <v>63</v>
+      </c>
+      <c r="B10" s="58"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="7"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="39"/>
       <c r="AH10" s="14">
-        <f t="shared" ref="AH10:AH22" si="5">SUM((C10:AG10))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI10" s="14"/>
-      <c r="AJ10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK10" s="50" t="e">
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL10" s="1"/>
-      <c r="AM10" s="37" t="s">
+      <c r="AM10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AN10" s="38" t="e">
-        <f>AH12/AH10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO10" s="38" t="e">
+      <c r="AN10" s="37" t="e">
+        <f>AH13/AH11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO10" s="37" t="e">
         <f>AH38/AH36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP10" s="38" t="e">
+      <c r="AP10" s="37" t="e">
         <f>AH40/AH39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="38" t="e">
+      <c r="AQ10" s="37" t="e">
         <f>AH42/AH41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="38" t="e">
+      <c r="AR10" s="37" t="e">
         <f>(AH46+AH47+AH45)/AH4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="38" t="e">
+      <c r="AS10" s="37" t="e">
         <f>1-AH52/AH4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="63"/>
+        <v>51</v>
+      </c>
+      <c r="B11" s="58"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2048,219 +2038,221 @@
       <c r="J11" s="18"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="7"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
       <c r="AF11" s="18"/>
-      <c r="AG11" s="7"/>
+      <c r="AG11" s="39"/>
       <c r="AH11" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AH11:AH23" si="5">SUM((C11:AG11))</f>
         <v>0</v>
       </c>
       <c r="AI11" s="14"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="50" t="e">
+      <c r="AJ11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL11" s="1"/>
-      <c r="AM11" s="37" t="s">
+      <c r="AM11" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="AN11" s="38" t="e">
+      <c r="AN11" s="37" t="e">
         <f>AN10/AN9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO11" s="38" t="e">
+      <c r="AO11" s="37" t="e">
         <f>AO10/AO9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP11" s="38" t="e">
+      <c r="AP11" s="37" t="e">
         <f>AP10/AP9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ11" s="38" t="e">
+      <c r="AQ11" s="37" t="e">
         <f t="shared" ref="AQ11" si="6">AQ10/AQ9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR11" s="38" t="e">
+      <c r="AR11" s="37" t="e">
         <f t="shared" ref="AR11" si="7">AR10/AR9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS11" s="38" t="e">
+      <c r="AS11" s="37" t="e">
         <f t="shared" ref="AS11" si="8">AS10/AS9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="63"/>
+      <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="58"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="29"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="32">
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK12" s="50" t="e">
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL12" s="1"/>
-      <c r="AM12" s="37" t="s">
+      <c r="AM12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AN12" s="37" t="s">
+      <c r="AN12" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AO12" s="37" t="s">
+      <c r="AO12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AP12" s="37" t="s">
+      <c r="AP12" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="AQ12" s="37" t="s">
+      <c r="AQ12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AR12" s="37" t="s">
+      <c r="AR12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="AS12" s="37" t="s">
-        <v>99</v>
+      <c r="AS12" s="36" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="65"/>
+      <c r="A13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="59"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="28"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="26">
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="31">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="50" t="e">
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL13" s="1"/>
-      <c r="AM13" s="37" t="s">
+      <c r="AM13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AN13" s="39" t="e">
-        <f>AI11/AI9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO13" s="38" t="e">
-        <f>AI9/AI4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP13" s="48">
-        <f>AI24</f>
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="48">
+      <c r="AN13" s="38" t="e">
+        <f>AI12/AI10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO13" s="37" t="e">
+        <f>AI10/AI4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP13" s="47">
+        <f>AI25</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="47">
         <f>AI44</f>
         <v>0</v>
       </c>
-      <c r="AR13" s="48">
-        <f>AI12</f>
-        <v>0</v>
-      </c>
-      <c r="AS13" s="48">
-        <f>AI26</f>
+      <c r="AR13" s="47">
+        <f>AI13</f>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="47">
+        <f>AI27</f>
         <v>0</v>
       </c>
       <c r="AT13" s="23"/>
       <c r="AU13" s="23"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="65"/>
+      <c r="A14" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="67"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -2271,73 +2263,73 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
-      <c r="AH14" s="26">
+      <c r="AH14" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI14" s="14"/>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="50" t="e">
+      <c r="AK14" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL14" s="1"/>
-      <c r="AM14" s="37" t="s">
+      <c r="AM14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AN14" s="39" t="e">
-        <f>AH11/AH9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO14" s="38" t="e">
-        <f>AH9/AH4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP14" s="48">
-        <f>AH24</f>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="48">
+      <c r="AN14" s="38" t="e">
+        <f>AH12/AH10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO14" s="37" t="e">
+        <f>AH10/AH4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP14" s="47">
+        <f>AH25</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="47">
         <f>AH44</f>
         <v>0</v>
       </c>
-      <c r="AR14" s="48">
-        <f>AH12</f>
-        <v>0</v>
-      </c>
-      <c r="AS14" s="48">
-        <f>AH26</f>
+      <c r="AR14" s="47">
+        <f>AH13</f>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="47">
+        <f>AH27</f>
         <v>0</v>
       </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="65"/>
+      <c r="A15" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="67"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -2348,62 +2340,62 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
-      <c r="AH15" s="26">
+      <c r="AH15" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI15" s="14"/>
       <c r="AJ15" s="6"/>
-      <c r="AK15" s="50" t="e">
+      <c r="AK15" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15" s="1"/>
-      <c r="AM15" s="37" t="s">
+      <c r="AM15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="AN15" s="38" t="e">
+      <c r="AN15" s="37" t="e">
         <f>AN14/AN13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO15" s="38" t="e">
+      <c r="AO15" s="37" t="e">
         <f t="shared" ref="AO15" si="9">AO14/AO13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP15" s="38" t="e">
+      <c r="AP15" s="37" t="e">
         <f t="shared" ref="AP15" si="10">AP14/AP13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ15" s="38" t="e">
+      <c r="AQ15" s="37" t="e">
         <f t="shared" ref="AQ15:AR15" si="11">AQ14/AQ13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="38" t="e">
+      <c r="AR15" s="37" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS15" s="38" t="e">
+      <c r="AS15" s="37" t="e">
         <f>AS14/AS13</f>
         <v>#DIV/0!</v>
       </c>
@@ -2411,10 +2403,10 @@
       <c r="AU15" s="24"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="65"/>
+      <c r="A16" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="67"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -2425,34 +2417,34 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
-      <c r="AH16" s="26">
+      <c r="AH16" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="6"/>
-      <c r="AK16" s="50" t="e">
+      <c r="AK16" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2461,10 +2453,10 @@
       <c r="AU16" s="24"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="65"/>
+      <c r="A17" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="67"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2475,34 +2467,34 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
-      <c r="AH17" s="26">
+      <c r="AH17" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI17" s="14"/>
       <c r="AJ17" s="6"/>
-      <c r="AK17" s="50" t="e">
+      <c r="AK17" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2511,10 +2503,10 @@
       <c r="AU17" s="24"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="65"/>
+      <c r="A18" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="67"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -2525,58 +2517,58 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
-      <c r="AH18" s="26">
+      <c r="AH18" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI18" s="14"/>
       <c r="AJ18" s="6"/>
-      <c r="AK18" s="50" t="e">
+      <c r="AK18" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL18" s="1"/>
-      <c r="AM18" s="37" t="s">
+      <c r="AM18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AN18" s="37" t="s">
+      <c r="AN18" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AO18" s="37" t="s">
+      <c r="AO18" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AP18" s="37" t="s">
+      <c r="AP18" s="36" t="s">
         <v>95</v>
       </c>
       <c r="AT18" s="24"/>
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="65"/>
+      <c r="A19" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="67"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -2587,61 +2579,61 @@
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
-      <c r="AH19" s="26">
+      <c r="AH19" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI19" s="14"/>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="50" t="e">
+      <c r="AK19" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="37" t="s">
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AN19" s="38" t="e">
-        <f>AH13/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO19" s="48">
-        <f t="shared" ref="AO19:AO27" si="12">AH13</f>
-        <v>0</v>
-      </c>
-      <c r="AP19" s="48">
-        <f t="shared" ref="AP19:AP27" si="13">AI13</f>
+      <c r="AN19" s="37" t="e">
+        <f>AH14/AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO19" s="47">
+        <f>AH14</f>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="47">
+        <f>AI14</f>
         <v>0</v>
       </c>
       <c r="AT19" s="24"/>
       <c r="AU19" s="24"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="65"/>
+      <c r="A20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="67"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -2652,61 +2644,61 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
-      <c r="AH20" s="26">
+      <c r="AH20" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="6"/>
-      <c r="AK20" s="50" t="e">
+      <c r="AK20" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL20" s="49"/>
-      <c r="AM20" s="37" t="s">
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AN20" s="38" t="e">
-        <f>AH14/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO20" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP20" s="48">
-        <f t="shared" si="13"/>
+      <c r="AN20" s="37" t="e">
+        <f>AH15/AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO20" s="47">
+        <f>AH15</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="47">
+        <f>AI15</f>
         <v>0</v>
       </c>
       <c r="AT20" s="24"/>
       <c r="AU20" s="24"/>
     </row>
     <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="65"/>
+      <c r="A21" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="67"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2717,484 +2709,484 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
-      <c r="AH21" s="26">
+      <c r="AH21" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="6"/>
-      <c r="AK21" s="50" t="e">
+      <c r="AK21" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM21" s="37" t="s">
+      <c r="AM21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="38" t="e">
-        <f>AH15/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO21" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP21" s="48">
-        <f t="shared" si="13"/>
+      <c r="AN21" s="37" t="e">
+        <f>AH16/AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO21" s="47">
+        <f>AH16</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="47">
+        <f>AI16</f>
         <v>0</v>
       </c>
       <c r="AT21" s="24"/>
       <c r="AU21" s="24"/>
     </row>
     <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="56"/>
+      <c r="A22" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="67"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="26">
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="50" t="e">
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM22" s="37" t="s">
+      <c r="AM22" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="AN22" s="38" t="e">
-        <f>AH16/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO22" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP22" s="48">
-        <f t="shared" si="13"/>
+      <c r="AN22" s="37" t="e">
+        <f>AH17/AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO22" s="47">
+        <f>AH17</f>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="47">
+        <f>AI17</f>
         <v>0</v>
       </c>
       <c r="AT22" s="24"/>
       <c r="AU22" s="24"/>
     </row>
     <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="42"/>
+      <c r="A23" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="55"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK23" s="50" t="e">
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="37" t="s">
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AN23" s="38" t="e">
-        <f>AH17/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO23" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP23" s="48">
-        <f t="shared" si="13"/>
+      <c r="AN23" s="37" t="e">
+        <f>AH18/AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO23" s="47">
+        <f>AH18</f>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="47">
+        <f>AI18</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="42"/>
+      <c r="A24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="41"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="14">
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="6" t="s">
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AK24" s="50" t="e">
+      <c r="AK24" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM24" s="37" t="s">
+      <c r="AM24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AN24" s="38" t="e">
-        <f>AH18/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO24" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP24" s="48">
-        <f t="shared" si="13"/>
+      <c r="AN24" s="37" t="e">
+        <f>AH19/AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO24" s="47">
+        <f>AH19</f>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="47">
+        <f>AI19</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="51"/>
+        <v>56</v>
+      </c>
+      <c r="B25" s="41"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="7"/>
       <c r="AF25" s="17"/>
-      <c r="AG25" s="40"/>
+      <c r="AG25" s="7"/>
       <c r="AH25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI25" s="14"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="50" t="e">
+      <c r="AJ25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM25" s="37" t="s">
+      <c r="AM25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AN25" s="38" t="e">
-        <f>AH19/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO25" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP25" s="48">
-        <f t="shared" si="13"/>
+      <c r="AN25" s="37" t="e">
+        <f>AH20/AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO25" s="47">
+        <f>AH20</f>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="47">
+        <f>AI20</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="54"/>
+        <v>91</v>
+      </c>
+      <c r="B26" s="50"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
       <c r="AF26" s="17"/>
-      <c r="AG26" s="40"/>
+      <c r="AG26" s="39"/>
       <c r="AH26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI26" s="14"/>
       <c r="AJ26" s="6"/>
-      <c r="AK26" s="50" t="e">
+      <c r="AK26" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM26" s="37" t="s">
+      <c r="AM26" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AN26" s="38" t="e">
-        <f>AH20/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO26" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP26" s="48">
-        <f t="shared" si="13"/>
+      <c r="AN26" s="37" t="e">
+        <f>AH21/AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO26" s="47">
+        <f>AH21</f>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="47">
+        <f>AI21</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="55"/>
+        <v>97</v>
+      </c>
+      <c r="B27" s="53"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
       <c r="AF27" s="17"/>
-      <c r="AG27" s="40"/>
+      <c r="AG27" s="39"/>
       <c r="AH27" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="6"/>
-      <c r="AK27" s="50" t="e">
+      <c r="AK27" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM27" s="37" t="s">
+      <c r="AM27" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AN27" s="38" t="e">
-        <f>AH21/AH12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO27" s="48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="48">
-        <f t="shared" si="13"/>
+      <c r="AN27" s="37" t="e">
+        <f>AH22/AH13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO27" s="47">
+        <f>AH22</f>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="47">
+        <f>AI22</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="55"/>
+        <v>99</v>
+      </c>
+      <c r="B28" s="54"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="40"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
       <c r="AF28" s="17"/>
-      <c r="AG28" s="40"/>
+      <c r="AG28" s="39"/>
       <c r="AH28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI28" s="14"/>
       <c r="AJ28" s="6"/>
-      <c r="AK28" s="50" t="e">
+      <c r="AK28" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AN28" s="47" t="e">
+      <c r="AN28" s="46" t="e">
         <f>SUM(AN19:AN27)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3202,142 +3194,142 @@
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="51"/>
+        <v>100</v>
+      </c>
+      <c r="B29" s="54"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="40"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
       <c r="AF29" s="17"/>
-      <c r="AG29" s="40"/>
+      <c r="AG29" s="39"/>
       <c r="AH29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI29" s="14"/>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="50" t="e">
+      <c r="AK29" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="51"/>
+        <v>92</v>
+      </c>
+      <c r="B30" s="50"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="40"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
       <c r="AF30" s="17"/>
-      <c r="AG30" s="40"/>
+      <c r="AG30" s="39"/>
       <c r="AH30" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="6"/>
-      <c r="AK30" s="50" t="e">
+      <c r="AK30" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="57"/>
+        <v>93</v>
+      </c>
+      <c r="B31" s="50"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
       <c r="AF31" s="17"/>
-      <c r="AG31" s="40"/>
+      <c r="AG31" s="39"/>
       <c r="AH31" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C31:AG31))</f>
         <v>0</v>
       </c>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="6"/>
-      <c r="AK31" s="50" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK31" s="49" t="e">
+        <f>AH31/AI31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3345,54 +3337,54 @@
       <c r="A32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
       <c r="AF32" s="17"/>
-      <c r="AG32" s="40"/>
+      <c r="AG32" s="39"/>
       <c r="AH32" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="6"/>
-      <c r="AK32" s="50" t="e">
+      <c r="AK32" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="42"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -3403,24 +3395,24 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="17"/>
       <c r="AG33" s="7"/>
@@ -3430,104 +3422,104 @@
       </c>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="6"/>
-      <c r="AK33" s="50" t="e">
+      <c r="AK33" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="52"/>
+        <v>102</v>
+      </c>
+      <c r="B34" s="51"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
       <c r="L34" s="16"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
       <c r="AF34" s="17"/>
-      <c r="AG34" s="40"/>
+      <c r="AG34" s="39"/>
       <c r="AH34" s="14"/>
       <c r="AI34" s="14"/>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="50"/>
-    </row>
-    <row r="35" spans="1:45" ht="20.100000000000001" customHeight="1">
+      <c r="AK34" s="49"/>
+    </row>
+    <row r="35" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
       <c r="L35" s="16"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
       <c r="AF35" s="17"/>
-      <c r="AG35" s="40"/>
+      <c r="AG35" s="39"/>
       <c r="AH35" s="14">
-        <f t="shared" ref="AH35" si="14">SUM((C35:AG35))</f>
+        <f t="shared" ref="AH35" si="12">SUM((C35:AG35))</f>
         <v>0</v>
       </c>
       <c r="AI35" s="14"/>
       <c r="AJ35" s="6"/>
-      <c r="AK35" s="50" t="e">
-        <f t="shared" ref="AK35" si="15">AH35/AI35</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" ht="20.100000000000001" customHeight="1">
+      <c r="AK35" s="49" t="e">
+        <f t="shared" ref="AK35" si="13">AH35/AI35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="64" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="19"/>
@@ -3540,24 +3532,24 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="40"/>
-      <c r="AD36" s="40"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="17"/>
       <c r="AG36" s="7"/>
@@ -3569,16 +3561,16 @@
       <c r="AJ36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AK36" s="50" t="e">
+      <c r="AK36" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -3589,24 +3581,24 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="40"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="40"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
       <c r="AE37" s="7"/>
       <c r="AF37" s="17"/>
       <c r="AG37" s="7"/>
@@ -3616,16 +3608,16 @@
       </c>
       <c r="AI37" s="14"/>
       <c r="AJ37" s="6"/>
-      <c r="AK37" s="50" t="e">
+      <c r="AK37" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -3636,24 +3628,24 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="16"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="40"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
       <c r="AE38" s="7"/>
       <c r="AF38" s="17"/>
       <c r="AG38" s="7"/>
@@ -3663,16 +3655,16 @@
       </c>
       <c r="AI38" s="14"/>
       <c r="AJ38" s="6"/>
-      <c r="AK38" s="50" t="e">
+      <c r="AK38" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -3683,24 +3675,24 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="16"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="40"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="X39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="17"/>
       <c r="AG39" s="7"/>
@@ -3710,16 +3702,16 @@
       </c>
       <c r="AI39" s="14"/>
       <c r="AJ39" s="6"/>
-      <c r="AK39" s="50" t="e">
+      <c r="AK39" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="64"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -3730,24 +3722,24 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="16"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="40"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="17"/>
       <c r="AG40" s="7"/>
@@ -3757,16 +3749,16 @@
       </c>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="6"/>
-      <c r="AK40" s="50" t="e">
+      <c r="AK40" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="64" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="19"/>
@@ -3779,24 +3771,24 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="16"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="40"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
       <c r="AE41" s="7"/>
       <c r="AF41" s="17"/>
       <c r="AG41" s="7"/>
@@ -3808,16 +3800,16 @@
       <c r="AJ41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AK41" s="50" t="e">
+      <c r="AK41" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="63"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -3828,24 +3820,24 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="16"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="17"/>
       <c r="AG42" s="7"/>
@@ -3857,16 +3849,16 @@
       <c r="AJ42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AK42" s="50" t="e">
+      <c r="AK42" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="64"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -3877,25 +3869,25 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="16"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="40"/>
-      <c r="AD43" s="40"/>
-      <c r="AE43" s="40"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="39"/>
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
       <c r="AF43" s="17"/>
       <c r="AG43" s="7"/>
       <c r="AH43" s="14">
@@ -3904,19 +3896,16 @@
       </c>
       <c r="AI43" s="14"/>
       <c r="AJ43" s="6"/>
-      <c r="AK43" s="50" t="e">
+      <c r="AK43" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ43" s="23"/>
-      <c r="AR43" s="23"/>
-      <c r="AS43" s="23"/>
-    </row>
-    <row r="44" spans="1:45" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="44" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="43"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -3927,24 +3916,24 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="16"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
-      <c r="AC44" s="40"/>
-      <c r="AD44" s="40"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="39"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="39"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="17"/>
       <c r="AG44" s="7"/>
@@ -3954,19 +3943,16 @@
       </c>
       <c r="AI44" s="14"/>
       <c r="AJ44" s="6"/>
-      <c r="AK44" s="50" t="e">
+      <c r="AK44" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ44" s="23"/>
-      <c r="AR44" s="23"/>
-      <c r="AS44" s="23"/>
-    </row>
-    <row r="45" spans="1:45" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="45" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="64" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="19"/>
@@ -3979,24 +3965,24 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="16"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
-      <c r="AB45" s="40"/>
-      <c r="AC45" s="40"/>
-      <c r="AD45" s="40"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="39"/>
+      <c r="X45" s="39"/>
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
       <c r="AE45" s="7"/>
       <c r="AF45" s="17"/>
       <c r="AG45" s="7"/>
@@ -4006,19 +3992,16 @@
       </c>
       <c r="AI45" s="14"/>
       <c r="AJ45" s="6"/>
-      <c r="AK45" s="50" t="e">
+      <c r="AK45" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ45" s="23"/>
-      <c r="AR45" s="24"/>
-      <c r="AS45" s="25"/>
-    </row>
-    <row r="46" spans="1:45" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="46" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="63"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -4029,24 +4012,24 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="16"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="40"/>
-      <c r="AA46" s="40"/>
-      <c r="AB46" s="40"/>
-      <c r="AC46" s="40"/>
-      <c r="AD46" s="40"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="39"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="39"/>
+      <c r="X46" s="39"/>
+      <c r="Y46" s="39"/>
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="17"/>
       <c r="AG46" s="7"/>
@@ -4056,19 +4039,16 @@
       </c>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="6"/>
-      <c r="AK46" s="50" t="e">
+      <c r="AK46" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ46" s="23"/>
-      <c r="AR46" s="24"/>
-      <c r="AS46" s="25"/>
-    </row>
-    <row r="47" spans="1:45" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="47" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="63"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -4079,24 +4059,24 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="16"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="40"/>
-      <c r="AD47" s="40"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
       <c r="AE47" s="7"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="7"/>
@@ -4106,69 +4086,63 @@
       </c>
       <c r="AI47" s="14"/>
       <c r="AJ47" s="6"/>
-      <c r="AK47" s="50" t="e">
+      <c r="AK47" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-    </row>
-    <row r="48" spans="1:45" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="48" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="63"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
       <c r="L48" s="16"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="40"/>
-      <c r="AC48" s="40"/>
-      <c r="AD48" s="40"/>
-      <c r="AE48" s="40"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="39"/>
+      <c r="Y48" s="39"/>
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
       <c r="AF48" s="17"/>
-      <c r="AG48" s="40"/>
+      <c r="AG48" s="39"/>
       <c r="AH48" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI48" s="14"/>
       <c r="AJ48" s="6"/>
-      <c r="AK48" s="50" t="e">
+      <c r="AK48" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ48" s="23"/>
-      <c r="AR48" s="23"/>
-      <c r="AS48" s="23"/>
-    </row>
-    <row r="49" spans="1:45" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="49" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="64"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -4179,24 +4153,24 @@
       <c r="J49" s="7"/>
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="40"/>
-      <c r="AC49" s="40"/>
-      <c r="AD49" s="40"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+      <c r="X49" s="39"/>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
       <c r="AE49" s="7"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="7"/>
@@ -4206,19 +4180,16 @@
       </c>
       <c r="AI49" s="14"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="50" t="e">
+      <c r="AK49" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ49" s="23"/>
-      <c r="AR49" s="23"/>
-      <c r="AS49" s="23"/>
-    </row>
-    <row r="50" spans="1:45" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="50" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="64" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="19"/>
@@ -4231,24 +4202,24 @@
       <c r="J50" s="7"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="40"/>
-      <c r="AD50" s="40"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
       <c r="AE50" s="7"/>
       <c r="AF50" s="17"/>
       <c r="AG50" s="7"/>
@@ -4258,19 +4229,16 @@
       </c>
       <c r="AI50" s="14"/>
       <c r="AJ50" s="6"/>
-      <c r="AK50" s="50" t="e">
+      <c r="AK50" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ50" s="23"/>
-      <c r="AR50" s="24"/>
-      <c r="AS50" s="25"/>
-    </row>
-    <row r="51" spans="1:45" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="51" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="63"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -4281,24 +4249,24 @@
       <c r="J51" s="7"/>
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
-      <c r="AA51" s="40"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="40"/>
-      <c r="AD51" s="40"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+      <c r="X51" s="39"/>
+      <c r="Y51" s="39"/>
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
       <c r="AE51" s="7"/>
       <c r="AF51" s="17"/>
       <c r="AG51" s="7"/>
@@ -4308,20 +4276,16 @@
       </c>
       <c r="AI51" s="14"/>
       <c r="AJ51" s="6"/>
-      <c r="AK51" s="50" t="e">
+      <c r="AK51" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP51" s="23"/>
-      <c r="AQ51" s="23"/>
-      <c r="AR51" s="24"/>
-      <c r="AS51" s="25"/>
-    </row>
-    <row r="52" spans="1:45" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="52" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="64"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -4332,24 +4296,24 @@
       <c r="J52" s="7"/>
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="40"/>
-      <c r="AC52" s="40"/>
-      <c r="AD52" s="40"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
+      <c r="Y52" s="39"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
       <c r="AE52" s="7"/>
       <c r="AF52" s="17"/>
       <c r="AG52" s="7"/>
@@ -4361,16 +4325,12 @@
       <c r="AJ52" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AK52" s="50" t="e">
+      <c r="AK52" s="49" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP52" s="23"/>
-      <c r="AQ52" s="23"/>
-      <c r="AR52" s="24"/>
-      <c r="AS52" s="25"/>
-    </row>
-    <row r="53" spans="1:45" ht="409.6">
+    </row>
+    <row r="53" spans="1:37">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -4378,33 +4338,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
-      <c r="AP56" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:AJ2"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B14:B22"/>
     <mergeCell ref="B36:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AR45:AR46">
-    <cfRule type="expression" dxfId="2" priority="28">
-      <formula>IF(AR45&gt;=$AM18,1,0)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AT15:AU22">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="0" priority="32">
       <formula>IF(AT15&gt;=$AM18,1,0)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR50:AR52">
-    <cfRule type="expression" dxfId="0" priority="30">
-      <formula>IF(AR50&gt;=$AM22,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -428,7 +428,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其中红旭汇绑定台次</t>
+    <t>红旭汇绑定订单数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1286,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2619,11 +2619,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO19" s="47">
-        <f>AH14</f>
+        <f t="shared" ref="AO19:AO27" si="12">AH14</f>
         <v>0</v>
       </c>
       <c r="AP19" s="47">
-        <f>AI14</f>
+        <f t="shared" ref="AP19:AP27" si="13">AI14</f>
         <v>0</v>
       </c>
       <c r="AT19" s="24"/>
@@ -2684,11 +2684,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO20" s="47">
-        <f>AH15</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP20" s="47">
-        <f>AI15</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT20" s="24"/>
@@ -2748,11 +2748,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO21" s="47">
-        <f>AH16</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP21" s="47">
-        <f>AI16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT21" s="24"/>
@@ -2812,11 +2812,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO22" s="47">
-        <f>AH17</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP22" s="47">
-        <f>AI17</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT22" s="24"/>
@@ -2877,11 +2877,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO23" s="47">
-        <f>AH18</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP23" s="47">
-        <f>AI18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -2941,11 +2941,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO24" s="47">
-        <f>AH19</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP24" s="47">
-        <f>AI19</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3005,11 +3005,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO25" s="47">
-        <f>AH20</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP25" s="47">
-        <f>AI20</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3067,11 +3067,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO26" s="47">
-        <f>AH21</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP26" s="47">
-        <f>AI21</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3129,11 +3129,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO27" s="47">
-        <f>AH22</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP27" s="47">
-        <f>AI22</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3505,13 +3505,13 @@
       <c r="AF35" s="17"/>
       <c r="AG35" s="39"/>
       <c r="AH35" s="14">
-        <f t="shared" ref="AH35" si="12">SUM((C35:AG35))</f>
+        <f t="shared" ref="AH35" si="14">SUM((C35:AG35))</f>
         <v>0</v>
       </c>
       <c r="AI35" s="14"/>
       <c r="AJ35" s="6"/>
       <c r="AK35" s="49" t="e">
-        <f t="shared" ref="AK35" si="13">AH35/AI35</f>
+        <f t="shared" ref="AK35" si="15">AH35/AI35</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/售后日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>延保台次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>延保达成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轮胎数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电瓶数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,23 +392,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空气滤清器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>玻璃险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玻璃险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发动机下护板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>划痕险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,11 +404,72 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>红旭汇绑定订单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延保无忧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃无忧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身机油</t>
+  </si>
+  <si>
+    <t>划痕无忧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调滤清器</t>
+  </si>
+  <si>
+    <t>高端机油</t>
+  </si>
+  <si>
+    <t>发动机皮带</t>
+  </si>
+  <si>
+    <t>火花塞</t>
+  </si>
+  <si>
+    <t>机油滤清器</t>
+  </si>
+  <si>
+    <t>燃油添加剂</t>
+  </si>
+  <si>
+    <t>发动机抗磨剂</t>
+  </si>
+  <si>
+    <t>玻璃水</t>
+  </si>
+  <si>
+    <t>雨刮片</t>
+  </si>
+  <si>
+    <t>蒸发箱清洗</t>
+  </si>
+  <si>
+    <t>空调清洗剂</t>
+  </si>
+  <si>
+    <t>制动盘</t>
+  </si>
+  <si>
+    <t>制动片</t>
+  </si>
+  <si>
+    <t>制动液</t>
+  </si>
+  <si>
     <t>免费保养</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红旭汇绑定订单数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,58 +924,61 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1280,13 +1324,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AU53"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1313,83 +1357,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
       <c r="AK1"/>
     </row>
     <row r="2" spans="1:47" ht="15" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
       <c r="AK2"/>
     </row>
     <row r="3" spans="1:47" ht="20.100000000000001" customHeight="1">
@@ -1502,15 +1546,15 @@
         <v>3</v>
       </c>
       <c r="AK3" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AL3" s="23"/>
     </row>
     <row r="4" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="57"/>
+        <v>84</v>
+      </c>
+      <c r="B4" s="55"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -1550,7 +1594,7 @@
       <c r="AJ4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="49" t="e">
+      <c r="AK4" s="48" t="e">
         <f>AH4/AI4</f>
         <v>#DIV/0!</v>
       </c>
@@ -1581,7 +1625,7 @@
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -1614,22 +1658,22 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="39"/>
       <c r="AH5" s="14">
-        <f t="shared" ref="AH5:AH52" si="0">SUM((C5:AG5))</f>
+        <f t="shared" ref="AH5:AH65" si="0">SUM((C5:AG5))</f>
         <v>0</v>
       </c>
       <c r="AI5" s="14"/>
       <c r="AJ5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AK5" s="49" t="e">
-        <f t="shared" ref="AK5:AK52" si="1">AH5/AI5</f>
+      <c r="AK5" s="48" t="e">
+        <f t="shared" ref="AK5:AK65" si="1">AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AN5" s="47">
+      <c r="AN5" s="46">
         <f>AI4</f>
         <v>0</v>
       </c>
@@ -1637,7 +1681,7 @@
         <f>AI5/AI4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP5" s="47">
+      <c r="AP5" s="46">
         <f>AI11</f>
         <v>0</v>
       </c>
@@ -1656,9 +1700,9 @@
     </row>
     <row r="6" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="56"/>
+        <v>97</v>
+      </c>
+      <c r="B6" s="54"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1696,7 +1740,7 @@
       </c>
       <c r="AI6" s="14"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="49" t="e">
+      <c r="AK6" s="48" t="e">
         <f>AH6/AI6</f>
         <v>#DIV/0!</v>
       </c>
@@ -1704,7 +1748,7 @@
       <c r="AM6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AN6" s="47">
+      <c r="AN6" s="46">
         <f>AH4</f>
         <v>0</v>
       </c>
@@ -1712,7 +1756,7 @@
         <f>AH5/AH4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP6" s="47">
+      <c r="AP6" s="46">
         <f>AH11</f>
         <v>0</v>
       </c>
@@ -1733,7 +1777,7 @@
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1771,13 +1815,13 @@
       </c>
       <c r="AI7" s="14"/>
       <c r="AJ7" s="6"/>
-      <c r="AK7" s="49" t="e">
+      <c r="AK7" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AN7" s="37" t="e">
         <f>AN6/AN5</f>
@@ -1808,7 +1852,7 @@
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -1846,7 +1890,7 @@
       </c>
       <c r="AI8" s="14"/>
       <c r="AJ8" s="6"/>
-      <c r="AK8" s="49" t="e">
+      <c r="AK8" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -1877,7 +1921,7 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -1915,7 +1959,7 @@
       </c>
       <c r="AI9" s="14"/>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="49" t="e">
+      <c r="AK9" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -1928,23 +1972,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" s="37" t="e">
-        <f>AI38/AI36</f>
+        <f>AI52/AI50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP9" s="37" t="e">
-        <f>AI40/AI39</f>
+        <f>AI54/AI53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ9" s="37" t="e">
-        <f>AI42/AI41</f>
+        <f>AI56/AI55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR9" s="37" t="e">
-        <f>(AI46+AI47+AI45)/AI4</f>
+        <f>(AI59+AI60+AI58)/AI4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS9" s="37" t="e">
-        <f>1-AI52/AI4</f>
+        <f>1-AI65/AI4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1952,7 +1996,7 @@
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -1990,7 +2034,7 @@
       </c>
       <c r="AI10" s="14"/>
       <c r="AJ10" s="6"/>
-      <c r="AK10" s="49" t="e">
+      <c r="AK10" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2003,23 +2047,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="37" t="e">
-        <f>AH38/AH36</f>
+        <f>AH52/AH50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP10" s="37" t="e">
-        <f>AH40/AH39</f>
+        <f>AH54/AH53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ10" s="37" t="e">
-        <f>AH42/AH41</f>
+        <f>AH56/AH55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR10" s="37" t="e">
-        <f>(AH46+AH47+AH45)/AH4</f>
+        <f>(AH59+AH60+AH58)/AH4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="37" t="e">
-        <f>1-AH52/AH4</f>
+        <f>1-AH65/AH4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2027,7 +2071,7 @@
       <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="58"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -2067,13 +2111,13 @@
       <c r="AJ11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AK11" s="49" t="e">
+      <c r="AK11" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AN11" s="37" t="e">
         <f>AN10/AN9</f>
@@ -2104,7 +2148,7 @@
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -2142,7 +2186,7 @@
       </c>
       <c r="AI12" s="14"/>
       <c r="AJ12" s="6"/>
-      <c r="AK12" s="49" t="e">
+      <c r="AK12" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2157,23 +2201,23 @@
         <v>29</v>
       </c>
       <c r="AP12" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AQ12" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR12" s="36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS12" s="36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="29"/>
@@ -2213,7 +2257,7 @@
       <c r="AJ13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AK13" s="49" t="e">
+      <c r="AK13" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2229,19 +2273,19 @@
         <f>AI10/AI4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP13" s="47">
+      <c r="AP13" s="46">
         <f>AI25</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="47">
-        <f>AI44</f>
-        <v>0</v>
-      </c>
-      <c r="AR13" s="47">
+      <c r="AQ13" s="46" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AR13" s="46">
         <f>AI13</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="47">
+      <c r="AS13" s="46">
         <f>AI27</f>
         <v>0</v>
       </c>
@@ -2249,10 +2293,10 @@
       <c r="AU13" s="23"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -2290,7 +2334,7 @@
       </c>
       <c r="AI14" s="14"/>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="49" t="e">
+      <c r="AK14" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2306,19 +2350,19 @@
         <f>AH10/AH4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AP14" s="47">
+      <c r="AP14" s="46">
         <f>AH25</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="47">
-        <f>AH44</f>
-        <v>0</v>
-      </c>
-      <c r="AR14" s="47">
+      <c r="AQ14" s="46" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AR14" s="46">
         <f>AH13</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="47">
+      <c r="AS14" s="46">
         <f>AH27</f>
         <v>0</v>
       </c>
@@ -2326,10 +2370,10 @@
       <c r="AU14" s="23"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -2367,13 +2411,13 @@
       </c>
       <c r="AI15" s="14"/>
       <c r="AJ15" s="6"/>
-      <c r="AK15" s="49" t="e">
+      <c r="AK15" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AN15" s="37" t="e">
         <f>AN14/AN13</f>
@@ -2389,7 +2433,7 @@
       </c>
       <c r="AQ15" s="37" t="e">
         <f t="shared" ref="AQ15:AR15" si="11">AQ14/AQ13</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="AR15" s="37" t="e">
         <f t="shared" si="11"/>
@@ -2403,10 +2447,10 @@
       <c r="AU15" s="24"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -2444,7 +2488,7 @@
       </c>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="6"/>
-      <c r="AK16" s="49" t="e">
+      <c r="AK16" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2453,10 +2497,10 @@
       <c r="AU16" s="24"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -2494,7 +2538,7 @@
       </c>
       <c r="AI17" s="14"/>
       <c r="AJ17" s="6"/>
-      <c r="AK17" s="49" t="e">
+      <c r="AK17" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2503,10 +2547,10 @@
       <c r="AU17" s="24"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="67"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -2544,7 +2588,7 @@
       </c>
       <c r="AI18" s="14"/>
       <c r="AJ18" s="6"/>
-      <c r="AK18" s="49" t="e">
+      <c r="AK18" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2559,16 +2603,16 @@
         <v>76</v>
       </c>
       <c r="AP18" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AT18" s="24"/>
       <c r="AU18" s="24"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="67"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -2606,11 +2650,11 @@
       </c>
       <c r="AI19" s="14"/>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="49" t="e">
+      <c r="AK19" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL19" s="48"/>
+      <c r="AL19" s="47"/>
       <c r="AM19" s="36" t="s">
         <v>43</v>
       </c>
@@ -2618,11 +2662,11 @@
         <f>AH14/AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO19" s="47">
+      <c r="AO19" s="46">
         <f t="shared" ref="AO19:AO27" si="12">AH14</f>
         <v>0</v>
       </c>
-      <c r="AP19" s="47">
+      <c r="AP19" s="46">
         <f t="shared" ref="AP19:AP27" si="13">AI14</f>
         <v>0</v>
       </c>
@@ -2630,10 +2674,10 @@
       <c r="AU19" s="24"/>
     </row>
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="67"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -2671,11 +2715,11 @@
       </c>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="6"/>
-      <c r="AK20" s="49" t="e">
+      <c r="AK20" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL20" s="48"/>
+      <c r="AL20" s="47"/>
       <c r="AM20" s="36" t="s">
         <v>17</v>
       </c>
@@ -2683,11 +2727,11 @@
         <f>AH15/AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO20" s="47">
+      <c r="AO20" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP20" s="47">
+      <c r="AP20" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2695,10 +2739,10 @@
       <c r="AU20" s="24"/>
     </row>
     <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -2736,7 +2780,7 @@
       </c>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="6"/>
-      <c r="AK21" s="49" t="e">
+      <c r="AK21" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2747,11 +2791,11 @@
         <f>AH16/AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO21" s="47">
+      <c r="AO21" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="47">
+      <c r="AP21" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2759,10 +2803,10 @@
       <c r="AU21" s="24"/>
     </row>
     <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="67"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -2800,7 +2844,7 @@
       </c>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="6"/>
-      <c r="AK22" s="49" t="e">
+      <c r="AK22" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2811,11 +2855,11 @@
         <f>AH17/AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO22" s="47">
+      <c r="AO22" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP22" s="47">
+      <c r="AP22" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2824,9 +2868,9 @@
     </row>
     <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="55"/>
+        <v>96</v>
+      </c>
+      <c r="B23" s="53"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="32"/>
@@ -2864,11 +2908,11 @@
       </c>
       <c r="AI23" s="34"/>
       <c r="AJ23" s="35"/>
-      <c r="AK23" s="49" t="e">
+      <c r="AK23" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL23" s="48"/>
+      <c r="AL23" s="47"/>
       <c r="AM23" s="36" t="s">
         <v>39</v>
       </c>
@@ -2876,11 +2920,11 @@
         <f>AH18/AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO23" s="47">
+      <c r="AO23" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP23" s="47">
+      <c r="AP23" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2929,7 +2973,7 @@
       <c r="AJ24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AK24" s="49" t="e">
+      <c r="AK24" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -2940,11 +2984,11 @@
         <f>AH19/AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO24" s="47">
+      <c r="AO24" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP24" s="47">
+      <c r="AP24" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -2993,7 +3037,7 @@
       <c r="AJ25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AK25" s="49" t="e">
+      <c r="AK25" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3004,20 +3048,20 @@
         <f>AH20/AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO25" s="47">
+      <c r="AO25" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP25" s="47">
+      <c r="AP25" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="B26" s="58"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -3055,7 +3099,7 @@
       </c>
       <c r="AI26" s="14"/>
       <c r="AJ26" s="6"/>
-      <c r="AK26" s="49" t="e">
+      <c r="AK26" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3066,20 +3110,20 @@
         <f>AH21/AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO26" s="47">
+      <c r="AO26" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP26" s="47">
+      <c r="AP26" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="53"/>
+        <v>99</v>
+      </c>
+      <c r="B27" s="51"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -3112,13 +3156,13 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="39"/>
       <c r="AH27" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C27:AG27))</f>
         <v>0</v>
       </c>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="6"/>
-      <c r="AK27" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK27" s="48" t="e">
+        <f>AH27/AI27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM27" s="36" t="s">
@@ -3128,20 +3172,20 @@
         <f>AH22/AH13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO27" s="47">
+      <c r="AO27" s="46">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AP27" s="47">
+      <c r="AP27" s="46">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="54"/>
+        <v>100</v>
+      </c>
+      <c r="B28" s="58"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -3174,19 +3218,19 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="39"/>
       <c r="AH28" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C28:AG28))</f>
         <v>0</v>
       </c>
       <c r="AI28" s="14"/>
       <c r="AJ28" s="6"/>
-      <c r="AK28" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK28" s="48" t="e">
+        <f>AH28/AI28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AN28" s="46" t="e">
+      <c r="AN28" s="45" t="e">
         <f>SUM(AN19:AN27)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3194,9 +3238,9 @@
     </row>
     <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="54"/>
+        <v>101</v>
+      </c>
+      <c r="B29" s="58"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -3229,21 +3273,21 @@
       <c r="AF29" s="17"/>
       <c r="AG29" s="39"/>
       <c r="AH29" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C29:AG29))</f>
         <v>0</v>
       </c>
       <c r="AI29" s="14"/>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK29" s="48" t="e">
+        <f>AH29/AI29</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="50"/>
+        <v>95</v>
+      </c>
+      <c r="B30" s="52"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -3281,16 +3325,16 @@
       </c>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="6"/>
-      <c r="AK30" s="49" t="e">
+      <c r="AK30" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="50"/>
+        <v>90</v>
+      </c>
+      <c r="B31" s="49"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -3323,21 +3367,21 @@
       <c r="AF31" s="17"/>
       <c r="AG31" s="39"/>
       <c r="AH31" s="14">
-        <f>SUM((C31:AG31))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="6"/>
-      <c r="AK31" s="49" t="e">
-        <f>AH31/AI31</f>
+      <c r="AK31" s="48" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="B32" s="49"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -3375,25 +3419,25 @@
       </c>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="6"/>
-      <c r="AK32" s="49" t="e">
+      <c r="AK32" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="41"/>
+      <c r="A33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="59"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
       <c r="L33" s="16"/>
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
@@ -3413,25 +3457,25 @@
       <c r="AB33" s="39"/>
       <c r="AC33" s="39"/>
       <c r="AD33" s="39"/>
-      <c r="AE33" s="7"/>
+      <c r="AE33" s="39"/>
       <c r="AF33" s="17"/>
-      <c r="AG33" s="7"/>
+      <c r="AG33" s="39"/>
       <c r="AH33" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="6"/>
-      <c r="AK33" s="49" t="e">
+      <c r="AK33" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="51"/>
+      <c r="A34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="60"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -3463,16 +3507,22 @@
       <c r="AE34" s="39"/>
       <c r="AF34" s="17"/>
       <c r="AG34" s="39"/>
-      <c r="AH34" s="14"/>
+      <c r="AH34" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AI34" s="14"/>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="49"/>
+      <c r="AK34" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="35" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="52"/>
+      <c r="A35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="59"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -3505,32 +3555,30 @@
       <c r="AF35" s="17"/>
       <c r="AG35" s="39"/>
       <c r="AH35" s="14">
-        <f t="shared" ref="AH35" si="14">SUM((C35:AG35))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI35" s="14"/>
       <c r="AJ35" s="6"/>
-      <c r="AK35" s="49" t="e">
-        <f t="shared" ref="AK35" si="15">AH35/AI35</f>
+      <c r="AK35" s="48" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="64" t="s">
-        <v>45</v>
-      </c>
+      <c r="A36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="59"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
       <c r="L36" s="16"/>
       <c r="M36" s="39"/>
       <c r="N36" s="39"/>
@@ -3550,36 +3598,34 @@
       <c r="AB36" s="39"/>
       <c r="AC36" s="39"/>
       <c r="AD36" s="39"/>
-      <c r="AE36" s="7"/>
+      <c r="AE36" s="39"/>
       <c r="AF36" s="17"/>
-      <c r="AG36" s="7"/>
+      <c r="AG36" s="39"/>
       <c r="AH36" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI36" s="14"/>
-      <c r="AJ36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK36" s="49" t="e">
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="65"/>
+      <c r="A37" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="59"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
       <c r="L37" s="16"/>
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
@@ -3599,34 +3645,34 @@
       <c r="AB37" s="39"/>
       <c r="AC37" s="39"/>
       <c r="AD37" s="39"/>
-      <c r="AE37" s="7"/>
+      <c r="AE37" s="39"/>
       <c r="AF37" s="17"/>
-      <c r="AG37" s="7"/>
+      <c r="AG37" s="39"/>
       <c r="AH37" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI37" s="14"/>
       <c r="AJ37" s="6"/>
-      <c r="AK37" s="49" t="e">
+      <c r="AK37" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="65"/>
+      <c r="A38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="59"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
       <c r="L38" s="16"/>
       <c r="M38" s="39"/>
       <c r="N38" s="39"/>
@@ -3646,34 +3692,34 @@
       <c r="AB38" s="39"/>
       <c r="AC38" s="39"/>
       <c r="AD38" s="39"/>
-      <c r="AE38" s="7"/>
+      <c r="AE38" s="39"/>
       <c r="AF38" s="17"/>
-      <c r="AG38" s="7"/>
+      <c r="AG38" s="39"/>
       <c r="AH38" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI38" s="14"/>
       <c r="AJ38" s="6"/>
-      <c r="AK38" s="49" t="e">
+      <c r="AK38" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="65"/>
+      <c r="A39" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="49"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
       <c r="L39" s="16"/>
       <c r="M39" s="39"/>
       <c r="N39" s="39"/>
@@ -3693,34 +3739,34 @@
       <c r="AB39" s="39"/>
       <c r="AC39" s="39"/>
       <c r="AD39" s="39"/>
-      <c r="AE39" s="7"/>
+      <c r="AE39" s="39"/>
       <c r="AF39" s="17"/>
-      <c r="AG39" s="7"/>
+      <c r="AG39" s="39"/>
       <c r="AH39" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM((C39:AG39))</f>
         <v>0</v>
       </c>
       <c r="AI39" s="14"/>
       <c r="AJ39" s="6"/>
-      <c r="AK39" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK39" s="48" t="e">
+        <f>AH39/AI39</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="66"/>
+      <c r="A40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="59"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
       <c r="L40" s="16"/>
       <c r="M40" s="39"/>
       <c r="N40" s="39"/>
@@ -3740,36 +3786,34 @@
       <c r="AB40" s="39"/>
       <c r="AC40" s="39"/>
       <c r="AD40" s="39"/>
-      <c r="AE40" s="7"/>
+      <c r="AE40" s="39"/>
       <c r="AF40" s="17"/>
-      <c r="AG40" s="7"/>
+      <c r="AG40" s="39"/>
       <c r="AH40" s="14">
-        <f>SUM((C40:AG40))</f>
+        <f t="shared" ref="AH40:AH48" si="14">SUM((C40:AG40))</f>
         <v>0</v>
       </c>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="6"/>
-      <c r="AK40" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK40" s="48" t="e">
+        <f t="shared" ref="AK40:AK48" si="15">AH40/AI40</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>46</v>
-      </c>
+      <c r="A41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="59"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
       <c r="L41" s="16"/>
       <c r="M41" s="39"/>
       <c r="N41" s="39"/>
@@ -3789,36 +3833,34 @@
       <c r="AB41" s="39"/>
       <c r="AC41" s="39"/>
       <c r="AD41" s="39"/>
-      <c r="AE41" s="7"/>
+      <c r="AE41" s="39"/>
       <c r="AF41" s="17"/>
-      <c r="AG41" s="7"/>
+      <c r="AG41" s="39"/>
       <c r="AH41" s="14">
-        <f>SUM((C41:AG41))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI41" s="14"/>
-      <c r="AJ41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK41" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="48" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="65"/>
+      <c r="A42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="59"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
       <c r="L42" s="16"/>
       <c r="M42" s="39"/>
       <c r="N42" s="39"/>
@@ -3838,36 +3880,34 @@
       <c r="AB42" s="39"/>
       <c r="AC42" s="39"/>
       <c r="AD42" s="39"/>
-      <c r="AE42" s="7"/>
+      <c r="AE42" s="39"/>
       <c r="AF42" s="17"/>
-      <c r="AG42" s="7"/>
+      <c r="AG42" s="39"/>
       <c r="AH42" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI42" s="14"/>
-      <c r="AJ42" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK42" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="48" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="66"/>
+      <c r="A43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="59"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
       <c r="L43" s="16"/>
       <c r="M43" s="39"/>
       <c r="N43" s="39"/>
@@ -3889,32 +3929,32 @@
       <c r="AD43" s="39"/>
       <c r="AE43" s="39"/>
       <c r="AF43" s="17"/>
-      <c r="AG43" s="7"/>
+      <c r="AG43" s="39"/>
       <c r="AH43" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI43" s="14"/>
       <c r="AJ43" s="6"/>
-      <c r="AK43" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK43" s="48" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="42"/>
+      <c r="A44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="59"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
       <c r="L44" s="16"/>
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
@@ -3934,36 +3974,34 @@
       <c r="AB44" s="39"/>
       <c r="AC44" s="39"/>
       <c r="AD44" s="39"/>
-      <c r="AE44" s="7"/>
+      <c r="AE44" s="39"/>
       <c r="AF44" s="17"/>
-      <c r="AG44" s="7"/>
+      <c r="AG44" s="39"/>
       <c r="AH44" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI44" s="14"/>
       <c r="AJ44" s="6"/>
-      <c r="AK44" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK44" s="48" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>47</v>
-      </c>
+      <c r="A45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="59"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
       <c r="L45" s="16"/>
       <c r="M45" s="39"/>
       <c r="N45" s="39"/>
@@ -3983,34 +4021,34 @@
       <c r="AB45" s="39"/>
       <c r="AC45" s="39"/>
       <c r="AD45" s="39"/>
-      <c r="AE45" s="7"/>
+      <c r="AE45" s="39"/>
       <c r="AF45" s="17"/>
-      <c r="AG45" s="7"/>
+      <c r="AG45" s="39"/>
       <c r="AH45" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI45" s="14"/>
       <c r="AJ45" s="6"/>
-      <c r="AK45" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK45" s="48" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="65"/>
+      <c r="A46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="59"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
       <c r="L46" s="16"/>
       <c r="M46" s="39"/>
       <c r="N46" s="39"/>
@@ -4030,34 +4068,34 @@
       <c r="AB46" s="39"/>
       <c r="AC46" s="39"/>
       <c r="AD46" s="39"/>
-      <c r="AE46" s="7"/>
+      <c r="AE46" s="39"/>
       <c r="AF46" s="17"/>
-      <c r="AG46" s="7"/>
+      <c r="AG46" s="39"/>
       <c r="AH46" s="14">
-        <f>SUM((C46:AG46))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="6"/>
-      <c r="AK46" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK46" s="48" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="65"/>
+      <c r="A47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="59"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
       <c r="L47" s="16"/>
       <c r="M47" s="39"/>
       <c r="N47" s="39"/>
@@ -4077,25 +4115,25 @@
       <c r="AB47" s="39"/>
       <c r="AC47" s="39"/>
       <c r="AD47" s="39"/>
-      <c r="AE47" s="7"/>
+      <c r="AE47" s="39"/>
       <c r="AF47" s="17"/>
-      <c r="AG47" s="7"/>
+      <c r="AG47" s="39"/>
       <c r="AH47" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI47" s="14"/>
       <c r="AJ47" s="6"/>
-      <c r="AK47" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK47" s="48" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="65"/>
+      <c r="A48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="59"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -4128,30 +4166,30 @@
       <c r="AF48" s="17"/>
       <c r="AG48" s="39"/>
       <c r="AH48" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI48" s="14"/>
       <c r="AJ48" s="6"/>
-      <c r="AK48" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK48" s="48" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="66"/>
+      <c r="A49" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="50"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="16"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
       <c r="L49" s="16"/>
       <c r="M49" s="39"/>
       <c r="N49" s="39"/>
@@ -4171,36 +4209,36 @@
       <c r="AB49" s="39"/>
       <c r="AC49" s="39"/>
       <c r="AD49" s="39"/>
-      <c r="AE49" s="7"/>
+      <c r="AE49" s="39"/>
       <c r="AF49" s="17"/>
-      <c r="AG49" s="7"/>
+      <c r="AG49" s="39"/>
       <c r="AH49" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH49" si="16">SUM((C49:AG49))</f>
         <v>0</v>
       </c>
       <c r="AI49" s="14"/>
       <c r="AJ49" s="6"/>
-      <c r="AK49" s="49" t="e">
-        <f t="shared" si="1"/>
+      <c r="AK49" s="48" t="e">
+        <f t="shared" ref="AK49" si="17">AH49/AI49</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="A50" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>45</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="16"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="16"/>
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
@@ -4228,26 +4266,28 @@
         <v>0</v>
       </c>
       <c r="AI50" s="14"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="49" t="e">
+      <c r="AJ50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK50" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="65"/>
+      <c r="A51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="66"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="16"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="16"/>
       <c r="M51" s="39"/>
       <c r="N51" s="39"/>
@@ -4276,14 +4316,14 @@
       </c>
       <c r="AI51" s="14"/>
       <c r="AJ51" s="6"/>
-      <c r="AK51" s="49" t="e">
+      <c r="AK51" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="13" t="s">
-        <v>59</v>
+      <c r="A52" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B52" s="66"/>
       <c r="C52" s="19"/>
@@ -4291,10 +4331,10 @@
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="7"/>
-      <c r="K52" s="16"/>
+      <c r="K52" s="7"/>
       <c r="L52" s="16"/>
       <c r="M52" s="39"/>
       <c r="N52" s="39"/>
@@ -4322,39 +4362,707 @@
         <v>0</v>
       </c>
       <c r="AI52" s="14"/>
-      <c r="AJ52" s="8" t="s">
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="66"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+      <c r="X53" s="39"/>
+      <c r="Y53" s="39"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="67"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="39"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="39"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="14">
+        <f>SUM((C54:AG54))</f>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="39"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="14">
+        <f>SUM((C55:AG55))</f>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK55" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="66"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="39"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK56" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="67"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="39"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="14"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="66"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="14">
+        <f>SUM((C59:AG59))</f>
+        <v>0</v>
+      </c>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="66"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="39"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI60" s="14"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="66"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
+      <c r="AB61" s="39"/>
+      <c r="AC61" s="39"/>
+      <c r="AD61" s="39"/>
+      <c r="AE61" s="39"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="39"/>
+      <c r="AH61" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="14"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="67"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="39"/>
+      <c r="AB62" s="39"/>
+      <c r="AC62" s="39"/>
+      <c r="AD62" s="39"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="6"/>
+      <c r="AK62" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="39"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="66"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="17"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="14"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="67"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="39"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="17"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="14"/>
+      <c r="AJ65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AK52" s="49" t="e">
+      <c r="AK65" s="48" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
-      <c r="A53" s="1" t="s">
+    <row r="66" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="49"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
+      <c r="AB66" s="39"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="39"/>
+      <c r="AE66" s="39"/>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="39"/>
+      <c r="AH66" s="14">
+        <f>SUM((C66:AG66))</f>
+        <v>0</v>
+      </c>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="48" t="e">
+        <f>AH66/AI66</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:37">
+      <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:AJ2"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B50:B54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AT15:AU22">
-    <cfRule type="expression" dxfId="0" priority="32">
+    <cfRule type="expression" dxfId="0" priority="34">
       <formula>IF(AT15&gt;=$AM18,1,0)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B53" r:id="rId1"/>
+    <hyperlink ref="B67" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
